--- a/Manual_Labelling/all_data.xlsx
+++ b/Manual_Labelling/all_data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25616"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2d01c3710df4d572/联邦学习/fl-bug-study/Manual_Labelling/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xhdu/Documents/OneDrive/联邦学习/fl-bug-study/Manual_Labelling/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="58" documentId="10_ncr:8100000_{0F974879-45CF-3F41-BB93-A69061702244}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{542A13C1-48FB-4CC4-AC85-5B72C7D329CF}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="10_ncr:8100000_{C355CC01-E1F4-0D41-9660-FD46EF433640}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BA195521-E2D3-48CD-8DA9-B803CFD0872D}"/>
   <bookViews>
     <workbookView xWindow="140" yWindow="460" windowWidth="36040" windowHeight="20160" xr2:uid="{61294B21-5DB8-A541-AF0D-AA0BFF754FE1}"/>
   </bookViews>
@@ -2357,12 +2357,6 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="10" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2375,50 +2369,26 @@
     <xf numFmtId="10" fontId="7" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="10" fontId="7" fillId="10" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="10" fontId="7" fillId="10" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2432,6 +2402,12 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2442,6 +2418,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2462,22 +2444,40 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="7" fillId="10" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2826,11 +2826,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61F27CA4-AB83-1D4C-A1CF-0AEEBD224CF3}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:O418"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A200" sqref="A200"/>
+      <selection activeCell="A360" sqref="A360"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.95"/>
@@ -2867,7 +2866,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:15" hidden="1">
+    <row r="2" spans="1:15">
       <c r="A2" s="27" t="s">
         <v>6</v>
       </c>
@@ -2887,7 +2886,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:15" hidden="1">
+    <row r="3" spans="1:15">
       <c r="A3" s="27" t="s">
         <v>12</v>
       </c>
@@ -2918,16 +2917,16 @@
       <c r="K3" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="L3" s="65" t="s">
+      <c r="L3" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="M3" s="66"/>
-      <c r="N3" s="30" t="s">
+      <c r="M3" s="37"/>
+      <c r="N3" s="69" t="s">
         <v>17</v>
       </c>
-      <c r="O3" s="31"/>
-    </row>
-    <row r="4" spans="1:15" hidden="1">
+      <c r="O3" s="70"/>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="27" t="s">
         <v>18</v>
       </c>
@@ -2946,7 +2945,7 @@
       <c r="F4" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="41" t="s">
+      <c r="H4" s="45" t="s">
         <v>19</v>
       </c>
       <c r="I4" s="6" t="s">
@@ -2964,11 +2963,11 @@
         <f>COUNTIFS(D:D,"=Model building")</f>
         <v>47</v>
       </c>
-      <c r="M4" s="67">
+      <c r="M4" s="38">
         <f>SUM(L4:L15)</f>
         <v>279</v>
       </c>
-      <c r="N4" s="32">
+      <c r="N4" s="30">
         <f>M4/395</f>
         <v>0.70632911392405062</v>
       </c>
@@ -2977,7 +2976,7 @@
         <v>0.16845878136200718</v>
       </c>
     </row>
-    <row r="5" spans="1:15" hidden="1">
+    <row r="5" spans="1:15">
       <c r="A5" s="27" t="s">
         <v>21</v>
       </c>
@@ -2996,7 +2995,7 @@
       <c r="F5" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="H5" s="42"/>
+      <c r="H5" s="46"/>
       <c r="I5" s="6" t="s">
         <v>22</v>
       </c>
@@ -3012,14 +3011,14 @@
         <f>COUNTIFS(D:D,"=Broadcast")</f>
         <v>5</v>
       </c>
-      <c r="M5" s="68"/>
-      <c r="N5" s="33"/>
+      <c r="M5" s="39"/>
+      <c r="N5" s="31"/>
       <c r="O5" s="17">
         <f>L5/M4</f>
         <v>1.7921146953405017E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:15" hidden="1">
+    <row r="6" spans="1:15">
       <c r="A6" s="27" t="s">
         <v>23</v>
       </c>
@@ -3038,7 +3037,7 @@
       <c r="F6" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="H6" s="42"/>
+      <c r="H6" s="46"/>
       <c r="I6" s="6" t="s">
         <v>26</v>
       </c>
@@ -3054,14 +3053,14 @@
         <f>COUNTIFS(D:D,"=Client computation")</f>
         <v>26</v>
       </c>
-      <c r="M6" s="68"/>
-      <c r="N6" s="33"/>
+      <c r="M6" s="39"/>
+      <c r="N6" s="31"/>
       <c r="O6" s="17">
         <f>L6/M4</f>
         <v>9.3189964157706098E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:15" hidden="1">
+    <row r="7" spans="1:15">
       <c r="A7" s="27" t="s">
         <v>27</v>
       </c>
@@ -3080,7 +3079,7 @@
       <c r="F7" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="H7" s="42"/>
+      <c r="H7" s="46"/>
       <c r="I7" s="6" t="s">
         <v>31</v>
       </c>
@@ -3096,14 +3095,14 @@
         <f>COUNTIFS(D:D,"=Aggregation &amp; Update")</f>
         <v>14</v>
       </c>
-      <c r="M7" s="68"/>
-      <c r="N7" s="33"/>
+      <c r="M7" s="39"/>
+      <c r="N7" s="31"/>
       <c r="O7" s="17">
         <f>L7/M4</f>
         <v>5.0179211469534052E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:15" hidden="1">
+    <row r="8" spans="1:15">
       <c r="A8" s="27" t="s">
         <v>32</v>
       </c>
@@ -3122,7 +3121,7 @@
       <c r="F8" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="H8" s="42"/>
+      <c r="H8" s="46"/>
       <c r="I8" s="6" t="s">
         <v>33</v>
       </c>
@@ -3138,14 +3137,14 @@
         <f>COUNTIFS(D:D,"=Prediction &amp; Evaluation")</f>
         <v>18</v>
       </c>
-      <c r="M8" s="68"/>
-      <c r="N8" s="33"/>
+      <c r="M8" s="39"/>
+      <c r="N8" s="31"/>
       <c r="O8" s="17">
         <f>L8/M4</f>
         <v>6.4516129032258063E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:15" hidden="1">
+    <row r="9" spans="1:15">
       <c r="A9" s="27" t="s">
         <v>34</v>
       </c>
@@ -3164,7 +3163,7 @@
       <c r="F9" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="H9" s="42"/>
+      <c r="H9" s="46"/>
       <c r="I9" s="6" t="s">
         <v>35</v>
       </c>
@@ -3180,14 +3179,14 @@
         <f>COUNTIFS(D:D,"=Security mechanism")</f>
         <v>18</v>
       </c>
-      <c r="M9" s="68"/>
-      <c r="N9" s="33"/>
+      <c r="M9" s="39"/>
+      <c r="N9" s="31"/>
       <c r="O9" s="17">
         <f>L9/M4</f>
         <v>6.4516129032258063E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:15" hidden="1">
+    <row r="10" spans="1:15">
       <c r="A10" s="27" t="s">
         <v>36</v>
       </c>
@@ -3206,7 +3205,7 @@
       <c r="F10" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="H10" s="42"/>
+      <c r="H10" s="46"/>
       <c r="I10" s="6" t="s">
         <v>39</v>
       </c>
@@ -3222,14 +3221,14 @@
         <f>COUNTIFS(D:D,"=Transformation &amp; Transfer")</f>
         <v>28</v>
       </c>
-      <c r="M10" s="68"/>
-      <c r="N10" s="33"/>
+      <c r="M10" s="39"/>
+      <c r="N10" s="31"/>
       <c r="O10" s="17">
         <f>L10/M4</f>
         <v>0.1003584229390681</v>
       </c>
     </row>
-    <row r="11" spans="1:15" hidden="1">
+    <row r="11" spans="1:15">
       <c r="A11" s="2" t="s">
         <v>40</v>
       </c>
@@ -3248,7 +3247,7 @@
       <c r="F11" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H11" s="42"/>
+      <c r="H11" s="46"/>
       <c r="I11" s="6" t="s">
         <v>41</v>
       </c>
@@ -3264,14 +3263,14 @@
         <f>COUNTIFS(D:D,"=Misuse")</f>
         <v>28</v>
       </c>
-      <c r="M11" s="68"/>
-      <c r="N11" s="33"/>
+      <c r="M11" s="39"/>
+      <c r="N11" s="31"/>
       <c r="O11" s="17">
         <f>L11/M4</f>
         <v>0.1003584229390681</v>
       </c>
     </row>
-    <row r="12" spans="1:15" hidden="1">
+    <row r="12" spans="1:15">
       <c r="A12" s="2" t="s">
         <v>42</v>
       </c>
@@ -3290,7 +3289,7 @@
       <c r="F12" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H12" s="42"/>
+      <c r="H12" s="46"/>
       <c r="I12" s="6" t="s">
         <v>43</v>
       </c>
@@ -3306,14 +3305,14 @@
         <f>COUNTIFS(D:D,"=User interface")</f>
         <v>4</v>
       </c>
-      <c r="M12" s="68"/>
-      <c r="N12" s="33"/>
+      <c r="M12" s="39"/>
+      <c r="N12" s="31"/>
       <c r="O12" s="17">
         <f>L12/M4</f>
         <v>1.4336917562724014E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:15" hidden="1">
+    <row r="13" spans="1:15">
       <c r="A13" s="2" t="s">
         <v>44</v>
       </c>
@@ -3332,7 +3331,7 @@
       <c r="F13" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H13" s="42"/>
+      <c r="H13" s="46"/>
       <c r="I13" s="6" t="s">
         <v>45</v>
       </c>
@@ -3348,14 +3347,14 @@
         <f>COUNTIFS(D:D,"=Framework evolution")</f>
         <v>38</v>
       </c>
-      <c r="M13" s="68"/>
-      <c r="N13" s="33"/>
+      <c r="M13" s="39"/>
+      <c r="N13" s="31"/>
       <c r="O13" s="17">
         <f>L13/M4</f>
         <v>0.13620071684587814</v>
       </c>
     </row>
-    <row r="14" spans="1:15" hidden="1">
+    <row r="14" spans="1:15">
       <c r="A14" s="2" t="s">
         <v>46</v>
       </c>
@@ -3374,7 +3373,7 @@
       <c r="F14" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H14" s="42"/>
+      <c r="H14" s="46"/>
       <c r="I14" s="6" t="s">
         <v>47</v>
       </c>
@@ -3390,14 +3389,14 @@
         <f>COUNTIFS(D:D,"=FL Configuration")</f>
         <v>39</v>
       </c>
-      <c r="M14" s="68"/>
-      <c r="N14" s="33"/>
+      <c r="M14" s="39"/>
+      <c r="N14" s="31"/>
       <c r="O14" s="17">
         <f>L14/M4</f>
         <v>0.13978494623655913</v>
       </c>
     </row>
-    <row r="15" spans="1:15" hidden="1">
+    <row r="15" spans="1:15">
       <c r="A15" s="2" t="s">
         <v>48</v>
       </c>
@@ -3416,7 +3415,7 @@
       <c r="F15" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H15" s="42"/>
+      <c r="H15" s="46"/>
       <c r="I15" s="12" t="s">
         <v>49</v>
       </c>
@@ -3432,14 +3431,14 @@
         <f>COUNTIFS(D:D,"=FL-Others")</f>
         <v>14</v>
       </c>
-      <c r="M15" s="69"/>
-      <c r="N15" s="34"/>
+      <c r="M15" s="40"/>
+      <c r="N15" s="32"/>
       <c r="O15" s="17">
         <f>L15/M4</f>
         <v>5.0179211469534052E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:15" hidden="1">
+    <row r="16" spans="1:15">
       <c r="A16" s="2" t="s">
         <v>50</v>
       </c>
@@ -3458,7 +3457,7 @@
       <c r="F16" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="H16" s="47" t="s">
+      <c r="H16" s="65" t="s">
         <v>53</v>
       </c>
       <c r="I16" s="7" t="s">
@@ -3476,11 +3475,11 @@
         <f>COUNTIFS(D:D,"=Data loading &amp; processing")</f>
         <v>42</v>
       </c>
-      <c r="M16" s="51">
+      <c r="M16" s="41">
         <f>SUM(L16:L17)</f>
         <v>44</v>
       </c>
-      <c r="N16" s="35">
+      <c r="N16" s="33">
         <f>M16/395</f>
         <v>0.11139240506329114</v>
       </c>
@@ -3489,7 +3488,7 @@
         <v>0.95454545454545459</v>
       </c>
     </row>
-    <row r="17" spans="1:15" hidden="1">
+    <row r="17" spans="1:15">
       <c r="A17" s="2" t="s">
         <v>55</v>
       </c>
@@ -3508,7 +3507,7 @@
       <c r="F17" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H17" s="48"/>
+      <c r="H17" s="66"/>
       <c r="I17" s="7" t="s">
         <v>56</v>
       </c>
@@ -3524,14 +3523,14 @@
         <f>COUNTIFS(D:D,"=Input data error")</f>
         <v>2</v>
       </c>
-      <c r="M17" s="53"/>
-      <c r="N17" s="36"/>
+      <c r="M17" s="43"/>
+      <c r="N17" s="35"/>
       <c r="O17" s="17">
         <f>L17/M16</f>
         <v>4.5454545454545456E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:15" hidden="1">
+    <row r="18" spans="1:15">
       <c r="A18" s="2" t="s">
         <v>57</v>
       </c>
@@ -3550,7 +3549,7 @@
       <c r="F18" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H18" s="44" t="s">
+      <c r="H18" s="51" t="s">
         <v>58</v>
       </c>
       <c r="I18" s="8" t="s">
@@ -3568,11 +3567,11 @@
         <f>COUNTIFS(D:D,"=Dependency")</f>
         <v>41</v>
       </c>
-      <c r="M18" s="67">
+      <c r="M18" s="38">
         <f>SUM(L18:L20)</f>
         <v>73</v>
       </c>
-      <c r="N18" s="32">
+      <c r="N18" s="30">
         <f>M18/395</f>
         <v>0.18481012658227849</v>
       </c>
@@ -3581,7 +3580,7 @@
         <v>0.56164383561643838</v>
       </c>
     </row>
-    <row r="19" spans="1:15" hidden="1">
+    <row r="19" spans="1:15">
       <c r="A19" s="2" t="s">
         <v>59</v>
       </c>
@@ -3600,7 +3599,7 @@
       <c r="F19" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H19" s="45"/>
+      <c r="H19" s="52"/>
       <c r="I19" s="8" t="s">
         <v>60</v>
       </c>
@@ -3616,14 +3615,14 @@
         <f>COUNTIFS(D:D,"=Deployment")</f>
         <v>19</v>
       </c>
-      <c r="M19" s="68"/>
-      <c r="N19" s="33"/>
+      <c r="M19" s="39"/>
+      <c r="N19" s="31"/>
       <c r="O19" s="17">
         <f>L19/M18</f>
         <v>0.26027397260273971</v>
       </c>
     </row>
-    <row r="20" spans="1:15" hidden="1">
+    <row r="20" spans="1:15">
       <c r="A20" s="2" t="s">
         <v>61</v>
       </c>
@@ -3642,7 +3641,7 @@
       <c r="F20" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="H20" s="46"/>
+      <c r="H20" s="64"/>
       <c r="I20" s="8" t="s">
         <v>66</v>
       </c>
@@ -3658,14 +3657,14 @@
         <f>COUNTIFS(D:D,"=Environment")</f>
         <v>13</v>
       </c>
-      <c r="M20" s="69"/>
-      <c r="N20" s="34"/>
+      <c r="M20" s="40"/>
+      <c r="N20" s="32"/>
       <c r="O20" s="17">
         <f>L20/M18</f>
         <v>0.17808219178082191</v>
       </c>
     </row>
-    <row r="21" spans="1:15" hidden="1">
+    <row r="21" spans="1:15">
       <c r="A21" s="2" t="s">
         <v>67</v>
       </c>
@@ -3684,10 +3683,10 @@
       <c r="F21" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="H21" s="49" t="s">
+      <c r="H21" s="67" t="s">
         <v>70</v>
       </c>
-      <c r="I21" s="50"/>
+      <c r="I21" s="68"/>
       <c r="J21" s="9">
         <f>COUNTIFS(C:C,"=FL framework",D:D,"=Others")</f>
         <v>10</v>
@@ -3713,7 +3712,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:15" hidden="1">
+    <row r="22" spans="1:15">
       <c r="A22" s="2" t="s">
         <v>71</v>
       </c>
@@ -3732,10 +3731,10 @@
       <c r="F22" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="H22" s="43" t="s">
+      <c r="H22" s="63" t="s">
         <v>16</v>
       </c>
-      <c r="I22" s="43"/>
+      <c r="I22" s="63"/>
       <c r="J22" s="11">
         <f>SUM(J4:J15,J16:J17,J18:J21)</f>
         <v>258</v>
@@ -3757,7 +3756,7 @@
         <v>1.0329113924050632</v>
       </c>
     </row>
-    <row r="23" spans="1:15" hidden="1">
+    <row r="23" spans="1:15">
       <c r="A23" s="2" t="s">
         <v>73</v>
       </c>
@@ -3784,7 +3783,7 @@
       <c r="M23" s="19"/>
       <c r="N23" s="20"/>
     </row>
-    <row r="24" spans="1:15" hidden="1">
+    <row r="24" spans="1:15">
       <c r="A24" s="2" t="s">
         <v>74</v>
       </c>
@@ -3815,16 +3814,16 @@
       <c r="K24" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="L24" s="65" t="s">
+      <c r="L24" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="M24" s="66"/>
-      <c r="N24" s="30" t="s">
+      <c r="M24" s="37"/>
+      <c r="N24" s="69" t="s">
         <v>17</v>
       </c>
-      <c r="O24" s="31"/>
-    </row>
-    <row r="25" spans="1:15" hidden="1">
+      <c r="O24" s="70"/>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="2" t="s">
         <v>76</v>
       </c>
@@ -3843,7 +3842,7 @@
       <c r="F25" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="H25" s="41" t="s">
+      <c r="H25" s="45" t="s">
         <v>79</v>
       </c>
       <c r="I25" s="14" t="s">
@@ -3861,11 +3860,11 @@
         <f>COUNTIFS(F:F,"=Incorrect Parameter/Message Transfer")</f>
         <v>13</v>
       </c>
-      <c r="M25" s="67">
+      <c r="M25" s="38">
         <f>SUM(L25:L31)</f>
         <v>134</v>
       </c>
-      <c r="N25" s="32">
+      <c r="N25" s="30">
         <f>M25/395</f>
         <v>0.3392405063291139</v>
       </c>
@@ -3874,7 +3873,7 @@
         <v>9.7014925373134331E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:15" hidden="1">
+    <row r="26" spans="1:15">
       <c r="A26" s="2" t="s">
         <v>80</v>
       </c>
@@ -3893,7 +3892,7 @@
       <c r="F26" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="H26" s="42"/>
+      <c r="H26" s="46"/>
       <c r="I26" s="14" t="s">
         <v>82</v>
       </c>
@@ -3909,14 +3908,14 @@
         <f>COUNTIFS(F:F,"=Incorrect Interaction Closing")</f>
         <v>3</v>
       </c>
-      <c r="M26" s="68"/>
-      <c r="N26" s="33"/>
+      <c r="M26" s="39"/>
+      <c r="N26" s="31"/>
       <c r="O26" s="17">
         <f>L26/M25</f>
         <v>2.2388059701492536E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:15" hidden="1">
+    <row r="27" spans="1:15">
       <c r="A27" s="2" t="s">
         <v>83</v>
       </c>
@@ -3935,7 +3934,7 @@
       <c r="F27" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="H27" s="42"/>
+      <c r="H27" s="46"/>
       <c r="I27" s="14" t="s">
         <v>86</v>
       </c>
@@ -3951,14 +3950,14 @@
         <f>COUNTIFS(F:F,"=Incorrect FL Algorithm Implementation")</f>
         <v>37</v>
       </c>
-      <c r="M27" s="68"/>
-      <c r="N27" s="33"/>
+      <c r="M27" s="39"/>
+      <c r="N27" s="31"/>
       <c r="O27" s="17">
         <f>L27/M25</f>
         <v>0.27611940298507465</v>
       </c>
     </row>
-    <row r="28" spans="1:15" hidden="1">
+    <row r="28" spans="1:15">
       <c r="A28" s="2" t="s">
         <v>87</v>
       </c>
@@ -3977,7 +3976,7 @@
       <c r="F28" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="H28" s="42"/>
+      <c r="H28" s="46"/>
       <c r="I28" s="14" t="s">
         <v>88</v>
       </c>
@@ -3993,14 +3992,14 @@
         <f>COUNTIFS(F:F,"=Improper Interaction Initialization/Establiah")</f>
         <v>36</v>
       </c>
-      <c r="M28" s="68"/>
-      <c r="N28" s="33"/>
+      <c r="M28" s="39"/>
+      <c r="N28" s="31"/>
       <c r="O28" s="17">
         <f>L28/M25</f>
         <v>0.26865671641791045</v>
       </c>
     </row>
-    <row r="29" spans="1:15" hidden="1">
+    <row r="29" spans="1:15">
       <c r="A29" s="2" t="s">
         <v>89</v>
       </c>
@@ -4019,7 +4018,7 @@
       <c r="F29" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="H29" s="42"/>
+      <c r="H29" s="46"/>
       <c r="I29" s="14" t="s">
         <v>92</v>
       </c>
@@ -4035,14 +4034,14 @@
         <f>COUNTIFS(F:F,"=FL Framework Evolution")</f>
         <v>30</v>
       </c>
-      <c r="M29" s="68"/>
-      <c r="N29" s="33"/>
+      <c r="M29" s="39"/>
+      <c r="N29" s="31"/>
       <c r="O29" s="17">
         <f>L29/M25</f>
         <v>0.22388059701492538</v>
       </c>
     </row>
-    <row r="30" spans="1:15" hidden="1">
+    <row r="30" spans="1:15">
       <c r="A30" s="2" t="s">
         <v>93</v>
       </c>
@@ -4061,7 +4060,7 @@
       <c r="F30" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="H30" s="42"/>
+      <c r="H30" s="46"/>
       <c r="I30" s="14" t="s">
         <v>94</v>
       </c>
@@ -4077,14 +4076,14 @@
         <f>COUNTIFS(F:F,"=Improper Entity Alignment")</f>
         <v>9</v>
       </c>
-      <c r="M30" s="68"/>
-      <c r="N30" s="33"/>
+      <c r="M30" s="39"/>
+      <c r="N30" s="31"/>
       <c r="O30" s="17">
         <f>L30/M25</f>
         <v>6.7164179104477612E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:15" hidden="1">
+    <row r="31" spans="1:15">
       <c r="A31" s="2" t="s">
         <v>95</v>
       </c>
@@ -4103,7 +4102,7 @@
       <c r="F31" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="H31" s="55"/>
+      <c r="H31" s="47"/>
       <c r="I31" s="14" t="s">
         <v>96</v>
       </c>
@@ -4119,14 +4118,14 @@
         <f>COUNTIFS(F:F,"=Missing/Incorrect Encryption Implementation")</f>
         <v>6</v>
       </c>
-      <c r="M31" s="69"/>
-      <c r="N31" s="34"/>
+      <c r="M31" s="40"/>
+      <c r="N31" s="32"/>
       <c r="O31" s="17">
         <f>L31/M25</f>
         <v>4.4776119402985072E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:15" hidden="1">
+    <row r="32" spans="1:15">
       <c r="A32" s="2" t="s">
         <v>97</v>
       </c>
@@ -4145,7 +4144,7 @@
       <c r="F32" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="H32" s="56" t="s">
+      <c r="H32" s="48" t="s">
         <v>98</v>
       </c>
       <c r="I32" s="15" t="s">
@@ -4163,11 +4162,11 @@
         <f>COUNTIFS(F:F,"=Improper Model Evaluation")</f>
         <v>10</v>
       </c>
-      <c r="M32" s="51">
+      <c r="M32" s="41">
         <f>SUM(L32:L38)</f>
         <v>69</v>
       </c>
-      <c r="N32" s="35">
+      <c r="N32" s="33">
         <f>M32/395</f>
         <v>0.17468354430379746</v>
       </c>
@@ -4176,7 +4175,7 @@
         <v>0.14492753623188406</v>
       </c>
     </row>
-    <row r="33" spans="1:15" hidden="1">
+    <row r="33" spans="1:15">
       <c r="A33" s="2" t="s">
         <v>100</v>
       </c>
@@ -4195,7 +4194,7 @@
       <c r="F33" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="H33" s="57"/>
+      <c r="H33" s="49"/>
       <c r="I33" s="15" t="s">
         <v>101</v>
       </c>
@@ -4211,14 +4210,14 @@
         <f>COUNTIFS(F:F,"=Incorrect Tensor-related Implementation")</f>
         <v>25</v>
       </c>
-      <c r="M33" s="52"/>
-      <c r="N33" s="70"/>
+      <c r="M33" s="42"/>
+      <c r="N33" s="34"/>
       <c r="O33" s="17">
         <f>L33/M32</f>
         <v>0.36231884057971014</v>
       </c>
     </row>
-    <row r="34" spans="1:15" hidden="1">
+    <row r="34" spans="1:15">
       <c r="A34" s="2" t="s">
         <v>102</v>
       </c>
@@ -4237,7 +4236,7 @@
       <c r="F34" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="H34" s="57"/>
+      <c r="H34" s="49"/>
       <c r="I34" s="15" t="s">
         <v>104</v>
       </c>
@@ -4253,14 +4252,14 @@
         <f>COUNTIFS(F:F,"=Improper Hyperparameter")</f>
         <v>6</v>
       </c>
-      <c r="M34" s="52"/>
-      <c r="N34" s="70"/>
+      <c r="M34" s="42"/>
+      <c r="N34" s="34"/>
       <c r="O34" s="17">
         <f>L34/M32</f>
         <v>8.6956521739130432E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:15" hidden="1">
+    <row r="35" spans="1:15">
       <c r="A35" s="2" t="s">
         <v>105</v>
       </c>
@@ -4279,7 +4278,7 @@
       <c r="F35" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="H35" s="57"/>
+      <c r="H35" s="49"/>
       <c r="I35" s="15" t="s">
         <v>106</v>
       </c>
@@ -4295,14 +4294,14 @@
         <f>COUNTIFS(F:F,"=Improper Model Initialization")</f>
         <v>8</v>
       </c>
-      <c r="M35" s="52"/>
-      <c r="N35" s="70"/>
+      <c r="M35" s="42"/>
+      <c r="N35" s="34"/>
       <c r="O35" s="17">
         <f>L35/M32</f>
         <v>0.11594202898550725</v>
       </c>
     </row>
-    <row r="36" spans="1:15" hidden="1">
+    <row r="36" spans="1:15">
       <c r="A36" s="2" t="s">
         <v>107</v>
       </c>
@@ -4321,7 +4320,7 @@
       <c r="F36" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="H36" s="57"/>
+      <c r="H36" s="49"/>
       <c r="I36" s="15" t="s">
         <v>109</v>
       </c>
@@ -4337,14 +4336,14 @@
         <f>COUNTIFS(F:F,"=Incorrect Training Strategy")</f>
         <v>8</v>
       </c>
-      <c r="M36" s="52"/>
-      <c r="N36" s="70"/>
+      <c r="M36" s="42"/>
+      <c r="N36" s="34"/>
       <c r="O36" s="17">
         <f>L36/M32</f>
         <v>0.11594202898550725</v>
       </c>
     </row>
-    <row r="37" spans="1:15" hidden="1">
+    <row r="37" spans="1:15">
       <c r="A37" s="2" t="s">
         <v>110</v>
       </c>
@@ -4363,7 +4362,7 @@
       <c r="F37" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="H37" s="57"/>
+      <c r="H37" s="49"/>
       <c r="I37" s="15" t="s">
         <v>111</v>
       </c>
@@ -4379,14 +4378,14 @@
         <f>COUNTIFS(F:F,"=Unsuitable ML/DL Algorithm Selection")</f>
         <v>10</v>
       </c>
-      <c r="M37" s="52"/>
-      <c r="N37" s="70"/>
+      <c r="M37" s="42"/>
+      <c r="N37" s="34"/>
       <c r="O37" s="17">
         <f>L37/M32</f>
         <v>0.14492753623188406</v>
       </c>
     </row>
-    <row r="38" spans="1:15" hidden="1">
+    <row r="38" spans="1:15">
       <c r="A38" s="2" t="s">
         <v>112</v>
       </c>
@@ -4405,7 +4404,7 @@
       <c r="F38" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="H38" s="58"/>
+      <c r="H38" s="50"/>
       <c r="I38" s="15" t="s">
         <v>113</v>
       </c>
@@ -4421,14 +4420,14 @@
         <f>COUNTIFS(F:F,"=Improper GPU Usage")</f>
         <v>2</v>
       </c>
-      <c r="M38" s="53"/>
-      <c r="N38" s="36"/>
+      <c r="M38" s="43"/>
+      <c r="N38" s="35"/>
       <c r="O38" s="17">
         <f>L38/M32</f>
         <v>2.8985507246376812E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:15" ht="15.75" hidden="1">
+    <row r="39" spans="1:15">
       <c r="A39" s="2" t="s">
         <v>114</v>
       </c>
@@ -4447,7 +4446,7 @@
       <c r="F39" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="H39" s="44" t="s">
+      <c r="H39" s="51" t="s">
         <v>115</v>
       </c>
       <c r="I39" s="14" t="s">
@@ -4465,11 +4464,11 @@
         <f>COUNTIFS(F:F,"=API Evolution Issue")</f>
         <v>17</v>
       </c>
-      <c r="M39" s="67">
+      <c r="M39" s="38">
         <f>SUM(L39:L43)</f>
         <v>68</v>
       </c>
-      <c r="N39" s="32">
+      <c r="N39" s="30">
         <f>M39/395</f>
         <v>0.17215189873417722</v>
       </c>
@@ -4478,7 +4477,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="40" spans="1:15" hidden="1">
+    <row r="40" spans="1:15">
       <c r="A40" s="2" t="s">
         <v>117</v>
       </c>
@@ -4497,7 +4496,7 @@
       <c r="F40" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="H40" s="45"/>
+      <c r="H40" s="52"/>
       <c r="I40" s="14" t="s">
         <v>118</v>
       </c>
@@ -4513,14 +4512,14 @@
         <f>COUNTIFS(F:F,"=API misuse")</f>
         <v>18</v>
       </c>
-      <c r="M40" s="68"/>
-      <c r="N40" s="33"/>
+      <c r="M40" s="39"/>
+      <c r="N40" s="31"/>
       <c r="O40" s="17">
         <f>L40/M39</f>
         <v>0.26470588235294118</v>
       </c>
     </row>
-    <row r="41" spans="1:15" hidden="1">
+    <row r="41" spans="1:15">
       <c r="A41" s="2" t="s">
         <v>119</v>
       </c>
@@ -4539,7 +4538,7 @@
       <c r="F41" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="H41" s="45"/>
+      <c r="H41" s="52"/>
       <c r="I41" s="14" t="s">
         <v>121</v>
       </c>
@@ -4555,14 +4554,14 @@
         <f>COUNTIFS(F:F,"=Wrong/Missing Dependency Import")</f>
         <v>13</v>
       </c>
-      <c r="M41" s="68"/>
-      <c r="N41" s="33"/>
+      <c r="M41" s="39"/>
+      <c r="N41" s="31"/>
       <c r="O41" s="17">
         <f>L41/M39</f>
         <v>0.19117647058823528</v>
       </c>
     </row>
-    <row r="42" spans="1:15" hidden="1">
+    <row r="42" spans="1:15">
       <c r="A42" s="2" t="s">
         <v>122</v>
       </c>
@@ -4581,7 +4580,7 @@
       <c r="F42" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H42" s="45"/>
+      <c r="H42" s="52"/>
       <c r="I42" s="14" t="s">
         <v>123</v>
       </c>
@@ -4597,8 +4596,8 @@
         <f>COUNTIFS(F:F,"=Improper Memory Usage")</f>
         <v>5</v>
       </c>
-      <c r="M42" s="68"/>
-      <c r="N42" s="33"/>
+      <c r="M42" s="39"/>
+      <c r="N42" s="31"/>
       <c r="O42" s="17">
         <f>L42/M39</f>
         <v>7.3529411764705885E-2</v>
@@ -4623,7 +4622,7 @@
       <c r="F43" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="H43" s="45"/>
+      <c r="H43" s="52"/>
       <c r="I43" s="14" t="s">
         <v>126</v>
       </c>
@@ -4639,14 +4638,14 @@
         <f>COUNTIFS(F:F,"=Missing/Incorrect Exception Checking")</f>
         <v>15</v>
       </c>
-      <c r="M43" s="69"/>
-      <c r="N43" s="34"/>
+      <c r="M43" s="40"/>
+      <c r="N43" s="32"/>
       <c r="O43" s="17">
         <f>L43/M39</f>
         <v>0.22058823529411764</v>
       </c>
     </row>
-    <row r="44" spans="1:15" hidden="1">
+    <row r="44" spans="1:15">
       <c r="A44" s="2" t="s">
         <v>127</v>
       </c>
@@ -4665,7 +4664,7 @@
       <c r="F44" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="H44" s="59" t="s">
+      <c r="H44" s="53" t="s">
         <v>53</v>
       </c>
       <c r="I44" s="15" t="s">
@@ -4683,11 +4682,11 @@
         <f>COUNTIFS(F:F,"=Incorrect Data Type, Shape &amp; Format")</f>
         <v>38</v>
       </c>
-      <c r="M44" s="51">
+      <c r="M44" s="41">
         <f>SUM(L44:L47)</f>
         <v>54</v>
       </c>
-      <c r="N44" s="35">
+      <c r="N44" s="33">
         <f>M44/395</f>
         <v>0.13670886075949368</v>
       </c>
@@ -4696,7 +4695,7 @@
         <v>0.70370370370370372</v>
       </c>
     </row>
-    <row r="45" spans="1:15" hidden="1">
+    <row r="45" spans="1:15">
       <c r="A45" s="2" t="s">
         <v>129</v>
       </c>
@@ -4715,7 +4714,7 @@
       <c r="F45" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="H45" s="60"/>
+      <c r="H45" s="54"/>
       <c r="I45" s="15" t="s">
         <v>130</v>
       </c>
@@ -4731,14 +4730,14 @@
         <f>COUNTIFS(F:F,"=Incorrect Data Loading")</f>
         <v>8</v>
       </c>
-      <c r="M45" s="52"/>
-      <c r="N45" s="70"/>
+      <c r="M45" s="42"/>
+      <c r="N45" s="34"/>
       <c r="O45" s="17">
         <f>L45/M44</f>
         <v>0.14814814814814814</v>
       </c>
     </row>
-    <row r="46" spans="1:15" hidden="1">
+    <row r="46" spans="1:15">
       <c r="A46" s="2" t="s">
         <v>129</v>
       </c>
@@ -4753,7 +4752,7 @@
       </c>
       <c r="E46" s="3"/>
       <c r="F46" s="3"/>
-      <c r="H46" s="60"/>
+      <c r="H46" s="54"/>
       <c r="I46" s="15" t="s">
         <v>131</v>
       </c>
@@ -4769,14 +4768,14 @@
         <f>COUNTIFS(F:F,"=Incorrect Data split")</f>
         <v>5</v>
       </c>
-      <c r="M46" s="52"/>
-      <c r="N46" s="70"/>
+      <c r="M46" s="42"/>
+      <c r="N46" s="34"/>
       <c r="O46" s="17">
         <f>L46/M44</f>
         <v>9.2592592592592587E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:15" hidden="1">
+    <row r="47" spans="1:15">
       <c r="A47" s="2" t="s">
         <v>132</v>
       </c>
@@ -4795,7 +4794,7 @@
       <c r="F47" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="H47" s="61"/>
+      <c r="H47" s="55"/>
       <c r="I47" s="15" t="s">
         <v>133</v>
       </c>
@@ -4811,14 +4810,14 @@
         <f>COUNTIFS(F:F,"=Data Absence")</f>
         <v>3</v>
       </c>
-      <c r="M47" s="53"/>
-      <c r="N47" s="36"/>
+      <c r="M47" s="43"/>
+      <c r="N47" s="35"/>
       <c r="O47" s="17">
         <f>L47/M44</f>
         <v>5.5555555555555552E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:15" hidden="1">
+    <row r="48" spans="1:15">
       <c r="A48" s="2" t="s">
         <v>134</v>
       </c>
@@ -4837,7 +4836,7 @@
       <c r="F48" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="H48" s="62" t="s">
+      <c r="H48" s="56" t="s">
         <v>135</v>
       </c>
       <c r="I48" s="14" t="s">
@@ -4855,11 +4854,11 @@
         <f>COUNTIFS(F:F,"=Incorrect Deployment")</f>
         <v>19</v>
       </c>
-      <c r="M48" s="54">
+      <c r="M48" s="44">
         <f>SUM(L48:L50)</f>
         <v>52</v>
       </c>
-      <c r="N48" s="32">
+      <c r="N48" s="30">
         <f>M48/395</f>
         <v>0.13164556962025317</v>
       </c>
@@ -4868,7 +4867,7 @@
         <v>0.36538461538461536</v>
       </c>
     </row>
-    <row r="49" spans="1:15" hidden="1">
+    <row r="49" spans="1:15">
       <c r="A49" s="2" t="s">
         <v>137</v>
       </c>
@@ -4887,7 +4886,7 @@
       <c r="F49" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="H49" s="63"/>
+      <c r="H49" s="57"/>
       <c r="I49" s="14" t="s">
         <v>138</v>
       </c>
@@ -4903,14 +4902,14 @@
         <f>COUNTIFS(F:F,"=Dependency Incompatibility")</f>
         <v>22</v>
       </c>
-      <c r="M49" s="54"/>
-      <c r="N49" s="33"/>
+      <c r="M49" s="44"/>
+      <c r="N49" s="31"/>
       <c r="O49" s="17">
         <f>L49/M48</f>
         <v>0.42307692307692307</v>
       </c>
     </row>
-    <row r="50" spans="1:15" hidden="1">
+    <row r="50" spans="1:15">
       <c r="A50" s="2" t="s">
         <v>139</v>
       </c>
@@ -4929,7 +4928,7 @@
       <c r="F50" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="H50" s="64"/>
+      <c r="H50" s="58"/>
       <c r="I50" s="14" t="s">
         <v>140</v>
       </c>
@@ -4945,14 +4944,14 @@
         <f>COUNTIFS(F:F,"=Unclear Environmental Issue")</f>
         <v>11</v>
       </c>
-      <c r="M50" s="54"/>
-      <c r="N50" s="34"/>
+      <c r="M50" s="44"/>
+      <c r="N50" s="32"/>
       <c r="O50" s="17">
         <f>L50/M48</f>
         <v>0.21153846153846154</v>
       </c>
     </row>
-    <row r="51" spans="1:15" hidden="1">
+    <row r="51" spans="1:15">
       <c r="A51" s="2" t="s">
         <v>141</v>
       </c>
@@ -4971,10 +4970,10 @@
       <c r="F51" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="H51" s="39" t="s">
+      <c r="H51" s="61" t="s">
         <v>70</v>
       </c>
-      <c r="I51" s="40"/>
+      <c r="I51" s="62"/>
       <c r="J51" s="9">
         <f>COUNTIFS(C:C,"=FL framework",F:F,"=Others")+COUNTIFS(C:C,"=FL framework",F:F, "=Data-Others")</f>
         <v>24</v>
@@ -5000,7 +4999,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:15" hidden="1">
+    <row r="52" spans="1:15">
       <c r="A52" s="2" t="s">
         <v>143</v>
       </c>
@@ -5017,10 +5016,10 @@
       <c r="F52" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="H52" s="37" t="s">
+      <c r="H52" s="59" t="s">
         <v>16</v>
       </c>
-      <c r="I52" s="38"/>
+      <c r="I52" s="60"/>
       <c r="J52" s="10">
         <f>SUM(J25:J51)</f>
         <v>258</v>
@@ -5042,7 +5041,7 @@
         <v>1.0253164556962024</v>
       </c>
     </row>
-    <row r="53" spans="1:15" hidden="1">
+    <row r="53" spans="1:15">
       <c r="A53" s="2" t="s">
         <v>144</v>
       </c>
@@ -5062,7 +5061,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="54" spans="1:15" hidden="1">
+    <row r="54" spans="1:15">
       <c r="A54" s="2" t="s">
         <v>145</v>
       </c>
@@ -5106,7 +5105,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="55" spans="1:15" hidden="1">
+    <row r="55" spans="1:15">
       <c r="A55" s="2" t="s">
         <v>152</v>
       </c>
@@ -5157,7 +5156,7 @@
         <v>0.58481012658227849</v>
       </c>
     </row>
-    <row r="56" spans="1:15" hidden="1">
+    <row r="56" spans="1:15">
       <c r="A56" s="2" t="s">
         <v>154</v>
       </c>
@@ -5208,7 +5207,7 @@
         <v>0.19746835443037974</v>
       </c>
     </row>
-    <row r="57" spans="1:15" hidden="1">
+    <row r="57" spans="1:15">
       <c r="A57" s="2" t="s">
         <v>156</v>
       </c>
@@ -5259,7 +5258,7 @@
         <v>4.3037974683544304E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:15" hidden="1">
+    <row r="58" spans="1:15">
       <c r="A58" s="2" t="s">
         <v>158</v>
       </c>
@@ -5310,7 +5309,7 @@
         <v>1.5189873417721518E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:15" hidden="1">
+    <row r="59" spans="1:15">
       <c r="A59" s="2" t="s">
         <v>160</v>
       </c>
@@ -5361,7 +5360,7 @@
         <v>2.0253164556962026E-2</v>
       </c>
     </row>
-    <row r="60" spans="1:15" hidden="1">
+    <row r="60" spans="1:15">
       <c r="A60" s="2" t="s">
         <v>164</v>
       </c>
@@ -5412,7 +5411,7 @@
         <v>2.2784810126582278E-2</v>
       </c>
     </row>
-    <row r="61" spans="1:15" hidden="1">
+    <row r="61" spans="1:15">
       <c r="A61" s="2" t="s">
         <v>166</v>
       </c>
@@ -5463,7 +5462,7 @@
         <v>7.5949367088607592E-3</v>
       </c>
     </row>
-    <row r="62" spans="1:15" hidden="1">
+    <row r="62" spans="1:15">
       <c r="A62" s="2" t="s">
         <v>168</v>
       </c>
@@ -5514,7 +5513,7 @@
         <v>1.7721518987341773E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:15" hidden="1">
+    <row r="63" spans="1:15">
       <c r="A63" s="2" t="s">
         <v>170</v>
       </c>
@@ -5565,7 +5564,7 @@
         <v>9.1139240506329114E-2</v>
       </c>
     </row>
-    <row r="64" spans="1:15" hidden="1">
+    <row r="64" spans="1:15">
       <c r="A64" s="2" t="s">
         <v>173</v>
       </c>
@@ -5616,7 +5615,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:6" hidden="1">
+    <row r="65" spans="1:6">
       <c r="A65" s="2" t="s">
         <v>174</v>
       </c>
@@ -5636,7 +5635,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="66" spans="1:6" hidden="1">
+    <row r="66" spans="1:6">
       <c r="A66" s="2" t="s">
         <v>175</v>
       </c>
@@ -5656,7 +5655,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="67" spans="1:6" hidden="1">
+    <row r="67" spans="1:6">
       <c r="A67" s="2" t="s">
         <v>176</v>
       </c>
@@ -5676,7 +5675,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="68" spans="1:6" hidden="1">
+    <row r="68" spans="1:6">
       <c r="A68" s="2" t="s">
         <v>177</v>
       </c>
@@ -5696,7 +5695,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="69" spans="1:6" hidden="1">
+    <row r="69" spans="1:6">
       <c r="A69" s="2" t="s">
         <v>178</v>
       </c>
@@ -5716,7 +5715,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="70" spans="1:6" hidden="1">
+    <row r="70" spans="1:6">
       <c r="A70" s="2" t="s">
         <v>179</v>
       </c>
@@ -5756,7 +5755,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="72" spans="1:6" hidden="1">
+    <row r="72" spans="1:6">
       <c r="A72" s="2" t="s">
         <v>183</v>
       </c>
@@ -5776,7 +5775,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="73" spans="1:6" hidden="1">
+    <row r="73" spans="1:6">
       <c r="A73" s="2" t="s">
         <v>184</v>
       </c>
@@ -5796,7 +5795,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="74" spans="1:6" hidden="1">
+    <row r="74" spans="1:6">
       <c r="A74" s="2" t="s">
         <v>185</v>
       </c>
@@ -5816,7 +5815,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="75" spans="1:6" hidden="1">
+    <row r="75" spans="1:6">
       <c r="A75" s="2" t="s">
         <v>186</v>
       </c>
@@ -5836,7 +5835,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="76" spans="1:6" hidden="1">
+    <row r="76" spans="1:6">
       <c r="A76" s="2" t="s">
         <v>187</v>
       </c>
@@ -5856,7 +5855,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="77" spans="1:6" hidden="1">
+    <row r="77" spans="1:6">
       <c r="A77" s="2" t="s">
         <v>188</v>
       </c>
@@ -5876,7 +5875,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="78" spans="1:6" hidden="1">
+    <row r="78" spans="1:6">
       <c r="A78" s="2" t="s">
         <v>189</v>
       </c>
@@ -5896,7 +5895,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="79" spans="1:6" hidden="1">
+    <row r="79" spans="1:6">
       <c r="A79" s="2" t="s">
         <v>190</v>
       </c>
@@ -5916,7 +5915,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="80" spans="1:6" hidden="1">
+    <row r="80" spans="1:6">
       <c r="A80" s="2" t="s">
         <v>190</v>
       </c>
@@ -5932,7 +5931,7 @@
       <c r="E80" s="3"/>
       <c r="F80" s="3"/>
     </row>
-    <row r="81" spans="1:6" hidden="1">
+    <row r="81" spans="1:6">
       <c r="A81" s="27" t="s">
         <v>191</v>
       </c>
@@ -5952,7 +5951,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="82" spans="1:6" hidden="1">
+    <row r="82" spans="1:6">
       <c r="A82" s="27" t="s">
         <v>194</v>
       </c>
@@ -5972,7 +5971,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="83" spans="1:6" hidden="1">
+    <row r="83" spans="1:6">
       <c r="A83" s="27" t="s">
         <v>195</v>
       </c>
@@ -5992,7 +5991,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="84" spans="1:6" hidden="1">
+    <row r="84" spans="1:6">
       <c r="A84" s="27" t="s">
         <v>196</v>
       </c>
@@ -6012,7 +6011,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="85" spans="1:6" hidden="1">
+    <row r="85" spans="1:6">
       <c r="A85" s="27" t="s">
         <v>197</v>
       </c>
@@ -6032,7 +6031,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="86" spans="1:6" hidden="1">
+    <row r="86" spans="1:6">
       <c r="A86" s="27" t="s">
         <v>198</v>
       </c>
@@ -6052,7 +6051,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="87" spans="1:6" hidden="1">
+    <row r="87" spans="1:6">
       <c r="A87" s="27" t="s">
         <v>199</v>
       </c>
@@ -6072,7 +6071,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="88" spans="1:6" hidden="1">
+    <row r="88" spans="1:6">
       <c r="A88" s="27" t="s">
         <v>200</v>
       </c>
@@ -6092,7 +6091,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="89" spans="1:6" hidden="1">
+    <row r="89" spans="1:6">
       <c r="A89" s="27" t="s">
         <v>201</v>
       </c>
@@ -6112,7 +6111,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="90" spans="1:6" hidden="1">
+    <row r="90" spans="1:6">
       <c r="A90" s="27" t="s">
         <v>203</v>
       </c>
@@ -6132,7 +6131,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="91" spans="1:6" hidden="1">
+    <row r="91" spans="1:6">
       <c r="A91" s="27" t="s">
         <v>204</v>
       </c>
@@ -6152,7 +6151,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="92" spans="1:6" hidden="1">
+    <row r="92" spans="1:6">
       <c r="A92" s="27" t="s">
         <v>205</v>
       </c>
@@ -6172,7 +6171,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="93" spans="1:6" hidden="1">
+    <row r="93" spans="1:6">
       <c r="A93" s="27" t="s">
         <v>206</v>
       </c>
@@ -6192,7 +6191,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="94" spans="1:6" hidden="1">
+    <row r="94" spans="1:6">
       <c r="A94" s="2" t="s">
         <v>207</v>
       </c>
@@ -6212,7 +6211,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="95" spans="1:6" hidden="1">
+    <row r="95" spans="1:6">
       <c r="A95" s="2" t="s">
         <v>209</v>
       </c>
@@ -6232,7 +6231,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="96" spans="1:6" hidden="1">
+    <row r="96" spans="1:6">
       <c r="A96" s="2" t="s">
         <v>211</v>
       </c>
@@ -6252,7 +6251,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="97" spans="1:6" hidden="1">
+    <row r="97" spans="1:6">
       <c r="A97" s="2" t="s">
         <v>215</v>
       </c>
@@ -6272,7 +6271,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="98" spans="1:6" hidden="1">
+    <row r="98" spans="1:6">
       <c r="A98" s="2" t="s">
         <v>216</v>
       </c>
@@ -6292,7 +6291,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="99" spans="1:6" hidden="1">
+    <row r="99" spans="1:6">
       <c r="A99" s="2" t="s">
         <v>217</v>
       </c>
@@ -6312,7 +6311,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="100" spans="1:6" hidden="1">
+    <row r="100" spans="1:6">
       <c r="A100" s="2" t="s">
         <v>219</v>
       </c>
@@ -6332,7 +6331,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="101" spans="1:6" hidden="1">
+    <row r="101" spans="1:6">
       <c r="A101" s="2" t="s">
         <v>220</v>
       </c>
@@ -6352,7 +6351,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="102" spans="1:6" hidden="1">
+    <row r="102" spans="1:6">
       <c r="A102" s="2" t="s">
         <v>221</v>
       </c>
@@ -6372,7 +6371,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="103" spans="1:6" hidden="1">
+    <row r="103" spans="1:6">
       <c r="A103" s="2" t="s">
         <v>223</v>
       </c>
@@ -6392,7 +6391,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="104" spans="1:6" hidden="1">
+    <row r="104" spans="1:6">
       <c r="A104" s="2" t="s">
         <v>225</v>
       </c>
@@ -6412,7 +6411,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="105" spans="1:6" hidden="1">
+    <row r="105" spans="1:6">
       <c r="A105" s="2" t="s">
         <v>226</v>
       </c>
@@ -6432,7 +6431,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="106" spans="1:6" hidden="1">
+    <row r="106" spans="1:6">
       <c r="A106" s="2" t="s">
         <v>227</v>
       </c>
@@ -6452,7 +6451,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="107" spans="1:6" hidden="1">
+    <row r="107" spans="1:6">
       <c r="A107" s="2" t="s">
         <v>229</v>
       </c>
@@ -6472,7 +6471,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="108" spans="1:6" hidden="1">
+    <row r="108" spans="1:6">
       <c r="A108" s="2" t="s">
         <v>230</v>
       </c>
@@ -6492,7 +6491,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="109" spans="1:6" hidden="1">
+    <row r="109" spans="1:6">
       <c r="A109" s="2" t="s">
         <v>231</v>
       </c>
@@ -6512,7 +6511,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="110" spans="1:6" hidden="1">
+    <row r="110" spans="1:6">
       <c r="A110" s="2" t="s">
         <v>232</v>
       </c>
@@ -6532,7 +6531,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="111" spans="1:6" hidden="1">
+    <row r="111" spans="1:6">
       <c r="A111" s="2" t="s">
         <v>233</v>
       </c>
@@ -6552,7 +6551,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="112" spans="1:6" hidden="1">
+    <row r="112" spans="1:6">
       <c r="A112" s="2" t="s">
         <v>234</v>
       </c>
@@ -6592,7 +6591,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="114" spans="1:6" hidden="1">
+    <row r="114" spans="1:6">
       <c r="A114" s="2" t="s">
         <v>236</v>
       </c>
@@ -6612,7 +6611,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="115" spans="1:6" hidden="1">
+    <row r="115" spans="1:6">
       <c r="A115" s="2" t="s">
         <v>238</v>
       </c>
@@ -6632,7 +6631,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="116" spans="1:6" hidden="1">
+    <row r="116" spans="1:6">
       <c r="A116" s="2" t="s">
         <v>238</v>
       </c>
@@ -6648,7 +6647,7 @@
       <c r="E116" s="3"/>
       <c r="F116" s="3"/>
     </row>
-    <row r="117" spans="1:6" hidden="1">
+    <row r="117" spans="1:6">
       <c r="A117" s="2" t="s">
         <v>239</v>
       </c>
@@ -6668,7 +6667,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="118" spans="1:6" hidden="1">
+    <row r="118" spans="1:6">
       <c r="A118" s="2" t="s">
         <v>242</v>
       </c>
@@ -6688,7 +6687,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="119" spans="1:6" hidden="1">
+    <row r="119" spans="1:6">
       <c r="A119" s="2" t="s">
         <v>243</v>
       </c>
@@ -6708,7 +6707,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="120" spans="1:6" hidden="1">
+    <row r="120" spans="1:6">
       <c r="A120" s="2" t="s">
         <v>244</v>
       </c>
@@ -6728,7 +6727,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="121" spans="1:6" hidden="1">
+    <row r="121" spans="1:6">
       <c r="A121" s="2" t="s">
         <v>245</v>
       </c>
@@ -6748,7 +6747,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="122" spans="1:6" hidden="1">
+    <row r="122" spans="1:6">
       <c r="A122" s="2" t="s">
         <v>246</v>
       </c>
@@ -6768,7 +6767,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="123" spans="1:6" hidden="1">
+    <row r="123" spans="1:6">
       <c r="A123" s="2" t="s">
         <v>247</v>
       </c>
@@ -6788,7 +6787,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="124" spans="1:6" hidden="1">
+    <row r="124" spans="1:6">
       <c r="A124" s="2" t="s">
         <v>248</v>
       </c>
@@ -6808,7 +6807,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="125" spans="1:6" hidden="1">
+    <row r="125" spans="1:6">
       <c r="A125" s="2" t="s">
         <v>249</v>
       </c>
@@ -6828,7 +6827,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="126" spans="1:6" hidden="1">
+    <row r="126" spans="1:6">
       <c r="A126" s="2" t="s">
         <v>250</v>
       </c>
@@ -6848,7 +6847,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="127" spans="1:6" hidden="1">
+    <row r="127" spans="1:6">
       <c r="A127" s="2" t="s">
         <v>251</v>
       </c>
@@ -6868,7 +6867,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="128" spans="1:6" hidden="1">
+    <row r="128" spans="1:6">
       <c r="A128" s="2" t="s">
         <v>252</v>
       </c>
@@ -6888,7 +6887,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="129" spans="1:6" hidden="1">
+    <row r="129" spans="1:6">
       <c r="A129" s="2" t="s">
         <v>253</v>
       </c>
@@ -6908,7 +6907,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="130" spans="1:6" hidden="1">
+    <row r="130" spans="1:6">
       <c r="A130" s="2" t="s">
         <v>254</v>
       </c>
@@ -6928,7 +6927,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="131" spans="1:6" hidden="1">
+    <row r="131" spans="1:6">
       <c r="A131" s="2" t="s">
         <v>255</v>
       </c>
@@ -6948,7 +6947,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="132" spans="1:6" hidden="1">
+    <row r="132" spans="1:6">
       <c r="A132" s="2" t="s">
         <v>257</v>
       </c>
@@ -6988,7 +6987,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="134" spans="1:6" hidden="1">
+    <row r="134" spans="1:6">
       <c r="A134" s="2" t="s">
         <v>259</v>
       </c>
@@ -7008,7 +7007,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="135" spans="1:6" hidden="1">
+    <row r="135" spans="1:6">
       <c r="A135" s="2" t="s">
         <v>261</v>
       </c>
@@ -7028,7 +7027,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="136" spans="1:6" hidden="1">
+    <row r="136" spans="1:6">
       <c r="A136" s="2" t="s">
         <v>262</v>
       </c>
@@ -7048,7 +7047,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="137" spans="1:6" hidden="1">
+    <row r="137" spans="1:6">
       <c r="A137" s="2" t="s">
         <v>263</v>
       </c>
@@ -7068,7 +7067,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="138" spans="1:6" hidden="1">
+    <row r="138" spans="1:6">
       <c r="A138" s="2" t="s">
         <v>264</v>
       </c>
@@ -7088,7 +7087,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="139" spans="1:6" hidden="1">
+    <row r="139" spans="1:6">
       <c r="A139" s="2" t="s">
         <v>265</v>
       </c>
@@ -7108,7 +7107,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="140" spans="1:6" hidden="1">
+    <row r="140" spans="1:6">
       <c r="A140" s="2" t="s">
         <v>266</v>
       </c>
@@ -7128,7 +7127,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="141" spans="1:6" hidden="1">
+    <row r="141" spans="1:6">
       <c r="A141" s="2" t="s">
         <v>267</v>
       </c>
@@ -7148,7 +7147,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="142" spans="1:6" hidden="1">
+    <row r="142" spans="1:6">
       <c r="A142" s="2" t="s">
         <v>268</v>
       </c>
@@ -7168,7 +7167,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="143" spans="1:6" hidden="1">
+    <row r="143" spans="1:6">
       <c r="A143" s="2" t="s">
         <v>269</v>
       </c>
@@ -7188,7 +7187,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="144" spans="1:6" hidden="1">
+    <row r="144" spans="1:6">
       <c r="A144" s="2" t="s">
         <v>270</v>
       </c>
@@ -7208,7 +7207,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="145" spans="1:6" hidden="1">
+    <row r="145" spans="1:6">
       <c r="A145" s="2" t="s">
         <v>271</v>
       </c>
@@ -7228,7 +7227,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="146" spans="1:6" hidden="1">
+    <row r="146" spans="1:6">
       <c r="A146" s="2" t="s">
         <v>272</v>
       </c>
@@ -7248,7 +7247,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="147" spans="1:6" hidden="1">
+    <row r="147" spans="1:6">
       <c r="A147" s="2" t="s">
         <v>273</v>
       </c>
@@ -7268,7 +7267,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="148" spans="1:6" hidden="1">
+    <row r="148" spans="1:6">
       <c r="A148" s="2" t="s">
         <v>274</v>
       </c>
@@ -7288,7 +7287,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="149" spans="1:6" hidden="1">
+    <row r="149" spans="1:6">
       <c r="A149" s="2" t="s">
         <v>275</v>
       </c>
@@ -7308,7 +7307,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="150" spans="1:6" hidden="1">
+    <row r="150" spans="1:6">
       <c r="A150" s="2" t="s">
         <v>276</v>
       </c>
@@ -7328,7 +7327,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="151" spans="1:6" hidden="1">
+    <row r="151" spans="1:6">
       <c r="A151" s="2" t="s">
         <v>277</v>
       </c>
@@ -7348,7 +7347,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="152" spans="1:6" hidden="1">
+    <row r="152" spans="1:6">
       <c r="A152" s="2" t="s">
         <v>278</v>
       </c>
@@ -7368,7 +7367,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="153" spans="1:6" hidden="1">
+    <row r="153" spans="1:6">
       <c r="A153" s="2" t="s">
         <v>279</v>
       </c>
@@ -7388,7 +7387,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="154" spans="1:6" hidden="1">
+    <row r="154" spans="1:6">
       <c r="A154" s="2" t="s">
         <v>280</v>
       </c>
@@ -7408,7 +7407,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="155" spans="1:6" hidden="1">
+    <row r="155" spans="1:6">
       <c r="A155" s="2" t="s">
         <v>281</v>
       </c>
@@ -7428,7 +7427,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="156" spans="1:6" hidden="1">
+    <row r="156" spans="1:6">
       <c r="A156" s="2" t="s">
         <v>282</v>
       </c>
@@ -7448,7 +7447,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="157" spans="1:6" hidden="1">
+    <row r="157" spans="1:6">
       <c r="A157" s="2" t="s">
         <v>283</v>
       </c>
@@ -7468,7 +7467,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="158" spans="1:6" hidden="1">
+    <row r="158" spans="1:6">
       <c r="A158" s="2" t="s">
         <v>284</v>
       </c>
@@ -7488,7 +7487,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="159" spans="1:6" hidden="1">
+    <row r="159" spans="1:6">
       <c r="A159" s="2" t="s">
         <v>285</v>
       </c>
@@ -7508,7 +7507,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="160" spans="1:6" hidden="1">
+    <row r="160" spans="1:6">
       <c r="A160" s="27" t="s">
         <v>286</v>
       </c>
@@ -7528,7 +7527,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="161" spans="1:6" hidden="1">
+    <row r="161" spans="1:6">
       <c r="A161" s="27" t="s">
         <v>288</v>
       </c>
@@ -7548,7 +7547,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="162" spans="1:6" hidden="1">
+    <row r="162" spans="1:6">
       <c r="A162" s="27" t="s">
         <v>289</v>
       </c>
@@ -7568,7 +7567,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="163" spans="1:6" hidden="1">
+    <row r="163" spans="1:6">
       <c r="A163" s="2" t="s">
         <v>290</v>
       </c>
@@ -7588,7 +7587,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="164" spans="1:6" hidden="1">
+    <row r="164" spans="1:6">
       <c r="A164" s="2" t="s">
         <v>291</v>
       </c>
@@ -7608,7 +7607,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="165" spans="1:6" hidden="1">
+    <row r="165" spans="1:6">
       <c r="A165" s="2" t="s">
         <v>292</v>
       </c>
@@ -7628,7 +7627,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="166" spans="1:6" hidden="1">
+    <row r="166" spans="1:6">
       <c r="A166" s="2" t="s">
         <v>293</v>
       </c>
@@ -7648,7 +7647,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="167" spans="1:6" hidden="1">
+    <row r="167" spans="1:6">
       <c r="A167" s="2" t="s">
         <v>294</v>
       </c>
@@ -7668,7 +7667,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="168" spans="1:6" hidden="1">
+    <row r="168" spans="1:6">
       <c r="A168" s="2" t="s">
         <v>295</v>
       </c>
@@ -7688,7 +7687,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="169" spans="1:6" hidden="1">
+    <row r="169" spans="1:6">
       <c r="A169" s="2" t="s">
         <v>296</v>
       </c>
@@ -7708,7 +7707,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="170" spans="1:6" hidden="1">
+    <row r="170" spans="1:6">
       <c r="A170" s="2" t="s">
         <v>297</v>
       </c>
@@ -7728,7 +7727,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="171" spans="1:6" hidden="1">
+    <row r="171" spans="1:6">
       <c r="A171" s="2" t="s">
         <v>298</v>
       </c>
@@ -7748,7 +7747,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="172" spans="1:6" hidden="1">
+    <row r="172" spans="1:6">
       <c r="A172" s="2" t="s">
         <v>299</v>
       </c>
@@ -7768,7 +7767,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="173" spans="1:6" hidden="1">
+    <row r="173" spans="1:6">
       <c r="A173" s="2" t="s">
         <v>300</v>
       </c>
@@ -7788,7 +7787,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="174" spans="1:6" hidden="1">
+    <row r="174" spans="1:6">
       <c r="A174" s="2" t="s">
         <v>301</v>
       </c>
@@ -7808,7 +7807,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="175" spans="1:6" hidden="1">
+    <row r="175" spans="1:6">
       <c r="A175" s="2" t="s">
         <v>302</v>
       </c>
@@ -7828,7 +7827,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="176" spans="1:6" hidden="1">
+    <row r="176" spans="1:6">
       <c r="A176" s="2" t="s">
         <v>303</v>
       </c>
@@ -7848,7 +7847,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="177" spans="1:6" hidden="1">
+    <row r="177" spans="1:6">
       <c r="A177" s="2" t="s">
         <v>304</v>
       </c>
@@ -7868,7 +7867,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="178" spans="1:6" hidden="1">
+    <row r="178" spans="1:6">
       <c r="A178" s="2" t="s">
         <v>305</v>
       </c>
@@ -7888,7 +7887,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="179" spans="1:6" hidden="1">
+    <row r="179" spans="1:6">
       <c r="A179" s="2" t="s">
         <v>306</v>
       </c>
@@ -7908,7 +7907,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="180" spans="1:6" hidden="1">
+    <row r="180" spans="1:6">
       <c r="A180" s="2" t="s">
         <v>307</v>
       </c>
@@ -7928,7 +7927,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="181" spans="1:6" s="29" customFormat="1" hidden="1">
+    <row r="181" spans="1:6" s="29" customFormat="1">
       <c r="A181" s="27" t="s">
         <v>308</v>
       </c>
@@ -7948,7 +7947,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="182" spans="1:6" hidden="1">
+    <row r="182" spans="1:6">
       <c r="A182" s="2" t="s">
         <v>310</v>
       </c>
@@ -7968,7 +7967,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="183" spans="1:6" hidden="1">
+    <row r="183" spans="1:6">
       <c r="A183" s="2" t="s">
         <v>312</v>
       </c>
@@ -7988,7 +7987,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="184" spans="1:6" hidden="1">
+    <row r="184" spans="1:6">
       <c r="A184" s="2" t="s">
         <v>313</v>
       </c>
@@ -8008,7 +8007,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="185" spans="1:6" hidden="1">
+    <row r="185" spans="1:6">
       <c r="A185" s="2" t="s">
         <v>314</v>
       </c>
@@ -8028,7 +8027,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="186" spans="1:6" hidden="1">
+    <row r="186" spans="1:6">
       <c r="A186" s="2" t="s">
         <v>315</v>
       </c>
@@ -8048,7 +8047,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="187" spans="1:6" hidden="1">
+    <row r="187" spans="1:6">
       <c r="A187" s="2" t="s">
         <v>317</v>
       </c>
@@ -8068,7 +8067,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="188" spans="1:6" hidden="1">
+    <row r="188" spans="1:6">
       <c r="A188" s="2" t="s">
         <v>318</v>
       </c>
@@ -8088,7 +8087,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="189" spans="1:6" hidden="1">
+    <row r="189" spans="1:6">
       <c r="A189" s="2" t="s">
         <v>319</v>
       </c>
@@ -8108,7 +8107,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="190" spans="1:6" hidden="1">
+    <row r="190" spans="1:6">
       <c r="A190" s="2" t="s">
         <v>321</v>
       </c>
@@ -8128,7 +8127,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="191" spans="1:6" hidden="1">
+    <row r="191" spans="1:6">
       <c r="A191" s="2" t="s">
         <v>323</v>
       </c>
@@ -8148,7 +8147,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="192" spans="1:6" hidden="1">
+    <row r="192" spans="1:6">
       <c r="A192" s="2" t="s">
         <v>325</v>
       </c>
@@ -8168,7 +8167,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="193" spans="1:6" hidden="1">
+    <row r="193" spans="1:6">
       <c r="A193" s="2" t="s">
         <v>326</v>
       </c>
@@ -8188,7 +8187,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="194" spans="1:6" hidden="1">
+    <row r="194" spans="1:6">
       <c r="A194" s="2" t="s">
         <v>327</v>
       </c>
@@ -8208,7 +8207,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="195" spans="1:6" hidden="1">
+    <row r="195" spans="1:6">
       <c r="A195" s="2" t="s">
         <v>328</v>
       </c>
@@ -8228,7 +8227,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="196" spans="1:6" hidden="1">
+    <row r="196" spans="1:6">
       <c r="A196" s="2" t="s">
         <v>329</v>
       </c>
@@ -8248,7 +8247,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="197" spans="1:6" hidden="1">
+    <row r="197" spans="1:6">
       <c r="A197" s="2" t="s">
         <v>330</v>
       </c>
@@ -8268,7 +8267,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="198" spans="1:6" hidden="1">
+    <row r="198" spans="1:6">
       <c r="A198" s="27" t="s">
         <v>331</v>
       </c>
@@ -8288,7 +8287,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="199" spans="1:6" hidden="1">
+    <row r="199" spans="1:6">
       <c r="A199" s="27" t="s">
         <v>332</v>
       </c>
@@ -8308,7 +8307,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="200" spans="1:6" hidden="1">
+    <row r="200" spans="1:6">
       <c r="A200" s="27" t="s">
         <v>333</v>
       </c>
@@ -8328,7 +8327,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="201" spans="1:6" hidden="1">
+    <row r="201" spans="1:6">
       <c r="A201" s="27" t="s">
         <v>334</v>
       </c>
@@ -8348,7 +8347,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="202" spans="1:6" hidden="1">
+    <row r="202" spans="1:6">
       <c r="A202" s="27" t="s">
         <v>335</v>
       </c>
@@ -8368,7 +8367,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="203" spans="1:6" hidden="1">
+    <row r="203" spans="1:6">
       <c r="A203" s="2" t="s">
         <v>336</v>
       </c>
@@ -8388,7 +8387,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="204" spans="1:6" hidden="1">
+    <row r="204" spans="1:6">
       <c r="A204" s="2" t="s">
         <v>337</v>
       </c>
@@ -8428,7 +8427,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="206" spans="1:6" hidden="1">
+    <row r="206" spans="1:6">
       <c r="A206" s="2" t="s">
         <v>339</v>
       </c>
@@ -8448,7 +8447,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="207" spans="1:6" hidden="1">
+    <row r="207" spans="1:6">
       <c r="A207" s="2" t="s">
         <v>340</v>
       </c>
@@ -8468,7 +8467,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="208" spans="1:6" hidden="1">
+    <row r="208" spans="1:6">
       <c r="A208" s="2" t="s">
         <v>341</v>
       </c>
@@ -8488,7 +8487,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="209" spans="1:6" hidden="1">
+    <row r="209" spans="1:6">
       <c r="A209" s="2" t="s">
         <v>342</v>
       </c>
@@ -8508,7 +8507,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="210" spans="1:6" hidden="1">
+    <row r="210" spans="1:6">
       <c r="A210" s="2" t="s">
         <v>343</v>
       </c>
@@ -8528,7 +8527,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="211" spans="1:6" hidden="1">
+    <row r="211" spans="1:6">
       <c r="A211" s="2" t="s">
         <v>344</v>
       </c>
@@ -8548,7 +8547,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="212" spans="1:6" hidden="1">
+    <row r="212" spans="1:6">
       <c r="A212" s="2" t="s">
         <v>345</v>
       </c>
@@ -8568,7 +8567,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="213" spans="1:6" hidden="1">
+    <row r="213" spans="1:6">
       <c r="A213" s="2" t="s">
         <v>346</v>
       </c>
@@ -8588,7 +8587,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="214" spans="1:6" hidden="1">
+    <row r="214" spans="1:6">
       <c r="A214" s="2" t="s">
         <v>347</v>
       </c>
@@ -8608,7 +8607,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="215" spans="1:6" hidden="1">
+    <row r="215" spans="1:6">
       <c r="A215" s="2" t="s">
         <v>348</v>
       </c>
@@ -8628,7 +8627,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="216" spans="1:6" hidden="1">
+    <row r="216" spans="1:6">
       <c r="A216" s="2" t="s">
         <v>349</v>
       </c>
@@ -8648,7 +8647,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="217" spans="1:6" hidden="1">
+    <row r="217" spans="1:6">
       <c r="A217" s="2" t="s">
         <v>350</v>
       </c>
@@ -8668,7 +8667,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="218" spans="1:6" hidden="1">
+    <row r="218" spans="1:6">
       <c r="A218" s="2" t="s">
         <v>351</v>
       </c>
@@ -8688,7 +8687,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="219" spans="1:6" hidden="1">
+    <row r="219" spans="1:6">
       <c r="A219" s="2" t="s">
         <v>352</v>
       </c>
@@ -8708,7 +8707,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="220" spans="1:6" hidden="1">
+    <row r="220" spans="1:6">
       <c r="A220" s="2" t="s">
         <v>353</v>
       </c>
@@ -8728,7 +8727,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="221" spans="1:6" hidden="1">
+    <row r="221" spans="1:6">
       <c r="A221" s="2" t="s">
         <v>354</v>
       </c>
@@ -8748,7 +8747,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="222" spans="1:6" hidden="1">
+    <row r="222" spans="1:6">
       <c r="A222" s="2" t="s">
         <v>355</v>
       </c>
@@ -8768,7 +8767,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="223" spans="1:6" hidden="1">
+    <row r="223" spans="1:6">
       <c r="A223" s="2" t="s">
         <v>356</v>
       </c>
@@ -8788,7 +8787,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="224" spans="1:6" hidden="1">
+    <row r="224" spans="1:6">
       <c r="A224" s="2" t="s">
         <v>357</v>
       </c>
@@ -8808,7 +8807,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="225" spans="1:6" hidden="1">
+    <row r="225" spans="1:6">
       <c r="A225" s="2" t="s">
         <v>358</v>
       </c>
@@ -8828,7 +8827,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="226" spans="1:6" hidden="1">
+    <row r="226" spans="1:6">
       <c r="A226" s="2" t="s">
         <v>359</v>
       </c>
@@ -8848,7 +8847,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="227" spans="1:6" hidden="1">
+    <row r="227" spans="1:6">
       <c r="A227" s="2" t="s">
         <v>359</v>
       </c>
@@ -8864,7 +8863,7 @@
       <c r="E227" s="3"/>
       <c r="F227" s="3"/>
     </row>
-    <row r="228" spans="1:6" hidden="1">
+    <row r="228" spans="1:6">
       <c r="A228" s="2" t="s">
         <v>360</v>
       </c>
@@ -8884,7 +8883,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="229" spans="1:6" hidden="1">
+    <row r="229" spans="1:6">
       <c r="A229" s="2" t="s">
         <v>361</v>
       </c>
@@ -8904,7 +8903,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="230" spans="1:6" hidden="1">
+    <row r="230" spans="1:6">
       <c r="A230" s="2" t="s">
         <v>362</v>
       </c>
@@ -8924,7 +8923,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="231" spans="1:6" hidden="1">
+    <row r="231" spans="1:6">
       <c r="A231" s="2" t="s">
         <v>363</v>
       </c>
@@ -8944,7 +8943,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="232" spans="1:6" hidden="1">
+    <row r="232" spans="1:6">
       <c r="A232" s="2" t="s">
         <v>364</v>
       </c>
@@ -8964,7 +8963,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="233" spans="1:6" hidden="1">
+    <row r="233" spans="1:6">
       <c r="A233" s="2" t="s">
         <v>365</v>
       </c>
@@ -8984,7 +8983,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="234" spans="1:6" hidden="1">
+    <row r="234" spans="1:6">
       <c r="A234" s="2" t="s">
         <v>366</v>
       </c>
@@ -9004,7 +9003,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="235" spans="1:6" hidden="1">
+    <row r="235" spans="1:6">
       <c r="A235" s="2" t="s">
         <v>367</v>
       </c>
@@ -9024,7 +9023,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="236" spans="1:6" hidden="1">
+    <row r="236" spans="1:6">
       <c r="A236" s="2" t="s">
         <v>368</v>
       </c>
@@ -9044,7 +9043,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="237" spans="1:6" hidden="1">
+    <row r="237" spans="1:6">
       <c r="A237" s="2" t="s">
         <v>369</v>
       </c>
@@ -9064,7 +9063,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="238" spans="1:6" hidden="1">
+    <row r="238" spans="1:6">
       <c r="A238" s="2" t="s">
         <v>370</v>
       </c>
@@ -9084,7 +9083,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="239" spans="1:6" hidden="1">
+    <row r="239" spans="1:6">
       <c r="A239" s="2" t="s">
         <v>371</v>
       </c>
@@ -9104,7 +9103,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="240" spans="1:6" hidden="1">
+    <row r="240" spans="1:6">
       <c r="A240" s="2" t="s">
         <v>371</v>
       </c>
@@ -9120,7 +9119,7 @@
       <c r="E240" s="3"/>
       <c r="F240" s="3"/>
     </row>
-    <row r="241" spans="1:6" hidden="1">
+    <row r="241" spans="1:6">
       <c r="A241" s="2" t="s">
         <v>372</v>
       </c>
@@ -9140,7 +9139,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="242" spans="1:6" hidden="1">
+    <row r="242" spans="1:6">
       <c r="A242" s="2" t="s">
         <v>373</v>
       </c>
@@ -9160,7 +9159,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="243" spans="1:6" hidden="1">
+    <row r="243" spans="1:6">
       <c r="A243" s="2" t="s">
         <v>374</v>
       </c>
@@ -9180,7 +9179,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="244" spans="1:6" hidden="1">
+    <row r="244" spans="1:6">
       <c r="A244" s="2" t="s">
         <v>375</v>
       </c>
@@ -9200,7 +9199,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="245" spans="1:6" hidden="1">
+    <row r="245" spans="1:6">
       <c r="A245" s="2" t="s">
         <v>376</v>
       </c>
@@ -9220,7 +9219,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="246" spans="1:6" hidden="1">
+    <row r="246" spans="1:6">
       <c r="A246" s="2" t="s">
         <v>377</v>
       </c>
@@ -9240,7 +9239,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="247" spans="1:6" hidden="1">
+    <row r="247" spans="1:6">
       <c r="A247" s="27" t="s">
         <v>378</v>
       </c>
@@ -9260,7 +9259,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="248" spans="1:6" hidden="1">
+    <row r="248" spans="1:6">
       <c r="A248" s="27" t="s">
         <v>379</v>
       </c>
@@ -9280,7 +9279,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="249" spans="1:6" hidden="1">
+    <row r="249" spans="1:6">
       <c r="A249" s="27" t="s">
         <v>380</v>
       </c>
@@ -9300,7 +9299,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="250" spans="1:6" hidden="1">
+    <row r="250" spans="1:6">
       <c r="A250" s="2" t="s">
         <v>381</v>
       </c>
@@ -9320,7 +9319,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="251" spans="1:6" hidden="1">
+    <row r="251" spans="1:6">
       <c r="A251" s="2" t="s">
         <v>382</v>
       </c>
@@ -9340,7 +9339,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="252" spans="1:6" hidden="1">
+    <row r="252" spans="1:6">
       <c r="A252" s="2" t="s">
         <v>383</v>
       </c>
@@ -9360,7 +9359,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="253" spans="1:6" hidden="1">
+    <row r="253" spans="1:6">
       <c r="A253" s="2" t="s">
         <v>384</v>
       </c>
@@ -9380,7 +9379,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="254" spans="1:6" hidden="1">
+    <row r="254" spans="1:6">
       <c r="A254" s="2" t="s">
         <v>385</v>
       </c>
@@ -9400,7 +9399,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="255" spans="1:6" hidden="1">
+    <row r="255" spans="1:6">
       <c r="A255" s="2" t="s">
         <v>386</v>
       </c>
@@ -9420,7 +9419,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="256" spans="1:6" hidden="1">
+    <row r="256" spans="1:6">
       <c r="A256" s="2" t="s">
         <v>387</v>
       </c>
@@ -9440,7 +9439,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="257" spans="1:6" hidden="1">
+    <row r="257" spans="1:6">
       <c r="A257" s="2" t="s">
         <v>388</v>
       </c>
@@ -9460,7 +9459,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="258" spans="1:6" hidden="1">
+    <row r="258" spans="1:6">
       <c r="A258" s="2" t="s">
         <v>389</v>
       </c>
@@ -9480,7 +9479,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="259" spans="1:6" hidden="1">
+    <row r="259" spans="1:6">
       <c r="A259" s="2" t="s">
         <v>390</v>
       </c>
@@ -9500,7 +9499,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="260" spans="1:6" hidden="1">
+    <row r="260" spans="1:6">
       <c r="A260" s="2" t="s">
         <v>391</v>
       </c>
@@ -9520,7 +9519,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="261" spans="1:6" hidden="1">
+    <row r="261" spans="1:6">
       <c r="A261" s="2" t="s">
         <v>392</v>
       </c>
@@ -9540,7 +9539,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="262" spans="1:6" hidden="1">
+    <row r="262" spans="1:6">
       <c r="A262" s="2" t="s">
         <v>393</v>
       </c>
@@ -9560,7 +9559,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="263" spans="1:6" hidden="1">
+    <row r="263" spans="1:6">
       <c r="A263" s="2" t="s">
         <v>394</v>
       </c>
@@ -9580,7 +9579,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="264" spans="1:6" hidden="1">
+    <row r="264" spans="1:6">
       <c r="A264" s="2" t="s">
         <v>395</v>
       </c>
@@ -9600,7 +9599,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="265" spans="1:6" hidden="1">
+    <row r="265" spans="1:6">
       <c r="A265" s="2" t="s">
         <v>396</v>
       </c>
@@ -9620,7 +9619,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="266" spans="1:6" hidden="1">
+    <row r="266" spans="1:6">
       <c r="A266" s="2" t="s">
         <v>397</v>
       </c>
@@ -9640,7 +9639,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="267" spans="1:6" hidden="1">
+    <row r="267" spans="1:6">
       <c r="A267" s="2" t="s">
         <v>398</v>
       </c>
@@ -9660,7 +9659,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="268" spans="1:6" hidden="1">
+    <row r="268" spans="1:6">
       <c r="A268" s="2" t="s">
         <v>399</v>
       </c>
@@ -9680,7 +9679,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="269" spans="1:6" hidden="1">
+    <row r="269" spans="1:6">
       <c r="A269" s="2" t="s">
         <v>400</v>
       </c>
@@ -9700,7 +9699,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="270" spans="1:6" hidden="1">
+    <row r="270" spans="1:6">
       <c r="A270" s="2" t="s">
         <v>401</v>
       </c>
@@ -9720,7 +9719,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="271" spans="1:6" hidden="1">
+    <row r="271" spans="1:6">
       <c r="A271" s="2" t="s">
         <v>402</v>
       </c>
@@ -9740,7 +9739,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="272" spans="1:6" hidden="1">
+    <row r="272" spans="1:6">
       <c r="A272" s="2" t="s">
         <v>403</v>
       </c>
@@ -9760,7 +9759,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="273" spans="1:6" hidden="1">
+    <row r="273" spans="1:6">
       <c r="A273" s="2" t="s">
         <v>404</v>
       </c>
@@ -9780,7 +9779,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="274" spans="1:6" hidden="1">
+    <row r="274" spans="1:6">
       <c r="A274" s="2" t="s">
         <v>404</v>
       </c>
@@ -9796,7 +9795,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="275" spans="1:6" hidden="1">
+    <row r="275" spans="1:6">
       <c r="A275" s="2" t="s">
         <v>405</v>
       </c>
@@ -9816,7 +9815,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="276" spans="1:6" hidden="1">
+    <row r="276" spans="1:6">
       <c r="A276" s="2" t="s">
         <v>406</v>
       </c>
@@ -9836,7 +9835,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="277" spans="1:6" hidden="1">
+    <row r="277" spans="1:6">
       <c r="A277" s="2" t="s">
         <v>407</v>
       </c>
@@ -9856,7 +9855,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="278" spans="1:6" hidden="1">
+    <row r="278" spans="1:6">
       <c r="A278" s="2" t="s">
         <v>408</v>
       </c>
@@ -9876,7 +9875,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="279" spans="1:6" hidden="1">
+    <row r="279" spans="1:6">
       <c r="A279" s="2" t="s">
         <v>409</v>
       </c>
@@ -9896,7 +9895,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="280" spans="1:6" hidden="1">
+    <row r="280" spans="1:6">
       <c r="A280" s="2" t="s">
         <v>410</v>
       </c>
@@ -9916,7 +9915,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="281" spans="1:6" hidden="1">
+    <row r="281" spans="1:6">
       <c r="A281" s="2" t="s">
         <v>411</v>
       </c>
@@ -9936,7 +9935,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="282" spans="1:6" hidden="1">
+    <row r="282" spans="1:6">
       <c r="A282" s="2" t="s">
         <v>412</v>
       </c>
@@ -9956,7 +9955,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="283" spans="1:6" hidden="1">
+    <row r="283" spans="1:6">
       <c r="A283" s="2" t="s">
         <v>413</v>
       </c>
@@ -9976,7 +9975,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="284" spans="1:6" hidden="1">
+    <row r="284" spans="1:6">
       <c r="A284" s="2" t="s">
         <v>414</v>
       </c>
@@ -9996,7 +9995,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="285" spans="1:6" hidden="1">
+    <row r="285" spans="1:6">
       <c r="A285" s="2" t="s">
         <v>415</v>
       </c>
@@ -10016,7 +10015,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="286" spans="1:6" hidden="1">
+    <row r="286" spans="1:6">
       <c r="A286" s="2" t="s">
         <v>416</v>
       </c>
@@ -10036,7 +10035,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="287" spans="1:6" hidden="1">
+    <row r="287" spans="1:6">
       <c r="A287" s="2" t="s">
         <v>417</v>
       </c>
@@ -10056,7 +10055,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="288" spans="1:6" hidden="1">
+    <row r="288" spans="1:6">
       <c r="A288" s="2" t="s">
         <v>418</v>
       </c>
@@ -10076,7 +10075,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="289" spans="1:6" hidden="1">
+    <row r="289" spans="1:6">
       <c r="A289" s="2" t="s">
         <v>419</v>
       </c>
@@ -10096,7 +10095,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="290" spans="1:6" hidden="1">
+    <row r="290" spans="1:6">
       <c r="A290" s="2" t="s">
         <v>420</v>
       </c>
@@ -10116,7 +10115,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="291" spans="1:6" hidden="1">
+    <row r="291" spans="1:6">
       <c r="A291" s="2" t="s">
         <v>421</v>
       </c>
@@ -10136,7 +10135,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="292" spans="1:6" hidden="1">
+    <row r="292" spans="1:6">
       <c r="A292" s="2" t="s">
         <v>422</v>
       </c>
@@ -10156,7 +10155,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="293" spans="1:6" s="29" customFormat="1" hidden="1">
+    <row r="293" spans="1:6" s="29" customFormat="1">
       <c r="A293" s="27" t="s">
         <v>424</v>
       </c>
@@ -10176,7 +10175,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="294" spans="1:6" hidden="1">
+    <row r="294" spans="1:6">
       <c r="A294" s="2" t="s">
         <v>425</v>
       </c>
@@ -10196,7 +10195,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="295" spans="1:6" hidden="1">
+    <row r="295" spans="1:6">
       <c r="A295" s="2" t="s">
         <v>425</v>
       </c>
@@ -10214,7 +10213,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="296" spans="1:6" hidden="1">
+    <row r="296" spans="1:6">
       <c r="A296" s="2" t="s">
         <v>426</v>
       </c>
@@ -10234,7 +10233,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="297" spans="1:6" hidden="1">
+    <row r="297" spans="1:6">
       <c r="A297" s="2" t="s">
         <v>427</v>
       </c>
@@ -10254,7 +10253,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="298" spans="1:6" hidden="1">
+    <row r="298" spans="1:6">
       <c r="A298" s="2" t="s">
         <v>428</v>
       </c>
@@ -10274,7 +10273,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="299" spans="1:6" hidden="1">
+    <row r="299" spans="1:6">
       <c r="A299" s="2" t="s">
         <v>429</v>
       </c>
@@ -10294,7 +10293,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="300" spans="1:6" hidden="1">
+    <row r="300" spans="1:6">
       <c r="A300" s="2" t="s">
         <v>430</v>
       </c>
@@ -10314,7 +10313,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="301" spans="1:6" hidden="1">
+    <row r="301" spans="1:6">
       <c r="A301" s="2" t="s">
         <v>431</v>
       </c>
@@ -10334,7 +10333,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="302" spans="1:6" hidden="1">
+    <row r="302" spans="1:6">
       <c r="A302" s="2" t="s">
         <v>432</v>
       </c>
@@ -10354,7 +10353,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="303" spans="1:6" hidden="1">
+    <row r="303" spans="1:6">
       <c r="A303" s="2" t="s">
         <v>433</v>
       </c>
@@ -10374,7 +10373,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="304" spans="1:6" hidden="1">
+    <row r="304" spans="1:6">
       <c r="A304" s="2" t="s">
         <v>434</v>
       </c>
@@ -10394,7 +10393,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="305" spans="1:6" hidden="1">
+    <row r="305" spans="1:6">
       <c r="A305" s="2" t="s">
         <v>435</v>
       </c>
@@ -10414,7 +10413,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="306" spans="1:6" hidden="1">
+    <row r="306" spans="1:6">
       <c r="A306" s="2" t="s">
         <v>436</v>
       </c>
@@ -10430,7 +10429,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="307" spans="1:6" hidden="1">
+    <row r="307" spans="1:6">
       <c r="A307" s="2" t="s">
         <v>437</v>
       </c>
@@ -10450,7 +10449,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="308" spans="1:6" hidden="1">
+    <row r="308" spans="1:6">
       <c r="A308" s="2" t="s">
         <v>438</v>
       </c>
@@ -10466,7 +10465,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="309" spans="1:6" hidden="1">
+    <row r="309" spans="1:6">
       <c r="A309" s="2" t="s">
         <v>439</v>
       </c>
@@ -10486,7 +10485,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="310" spans="1:6" hidden="1">
+    <row r="310" spans="1:6">
       <c r="A310" s="2" t="s">
         <v>440</v>
       </c>
@@ -10506,7 +10505,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="311" spans="1:6" hidden="1">
+    <row r="311" spans="1:6">
       <c r="A311" s="2" t="s">
         <v>441</v>
       </c>
@@ -10526,7 +10525,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="312" spans="1:6" hidden="1">
+    <row r="312" spans="1:6">
       <c r="A312" s="2" t="s">
         <v>442</v>
       </c>
@@ -10546,7 +10545,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="313" spans="1:6" hidden="1">
+    <row r="313" spans="1:6">
       <c r="A313" s="2" t="s">
         <v>443</v>
       </c>
@@ -10566,7 +10565,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="314" spans="1:6" hidden="1">
+    <row r="314" spans="1:6">
       <c r="A314" s="2" t="s">
         <v>444</v>
       </c>
@@ -10586,7 +10585,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="315" spans="1:6" hidden="1">
+    <row r="315" spans="1:6">
       <c r="A315" s="2" t="s">
         <v>445</v>
       </c>
@@ -10606,7 +10605,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="316" spans="1:6" hidden="1">
+    <row r="316" spans="1:6">
       <c r="A316" s="2" t="s">
         <v>446</v>
       </c>
@@ -10622,7 +10621,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="317" spans="1:6" hidden="1">
+    <row r="317" spans="1:6">
       <c r="A317" s="2" t="s">
         <v>447</v>
       </c>
@@ -10642,7 +10641,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="318" spans="1:6" hidden="1">
+    <row r="318" spans="1:6">
       <c r="A318" s="2" t="s">
         <v>447</v>
       </c>
@@ -10658,7 +10657,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="319" spans="1:6" hidden="1">
+    <row r="319" spans="1:6">
       <c r="A319" s="2" t="s">
         <v>448</v>
       </c>
@@ -10678,7 +10677,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="320" spans="1:6" hidden="1">
+    <row r="320" spans="1:6">
       <c r="A320" s="2" t="s">
         <v>449</v>
       </c>
@@ -10698,7 +10697,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="321" spans="1:6" hidden="1">
+    <row r="321" spans="1:6">
       <c r="A321" s="2" t="s">
         <v>450</v>
       </c>
@@ -10718,7 +10717,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="322" spans="1:6" s="29" customFormat="1" hidden="1">
+    <row r="322" spans="1:6" s="29" customFormat="1">
       <c r="A322" s="27" t="s">
         <v>451</v>
       </c>
@@ -10738,7 +10737,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="323" spans="1:6" s="29" customFormat="1" hidden="1">
+    <row r="323" spans="1:6" s="29" customFormat="1">
       <c r="A323" s="27" t="s">
         <v>452</v>
       </c>
@@ -10758,7 +10757,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="324" spans="1:6" s="29" customFormat="1" hidden="1">
+    <row r="324" spans="1:6" s="29" customFormat="1">
       <c r="A324" s="27" t="s">
         <v>453</v>
       </c>
@@ -10778,7 +10777,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="325" spans="1:6" hidden="1">
+    <row r="325" spans="1:6">
       <c r="A325" s="2" t="s">
         <v>454</v>
       </c>
@@ -10798,7 +10797,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="326" spans="1:6" hidden="1">
+    <row r="326" spans="1:6">
       <c r="A326" s="2" t="s">
         <v>455</v>
       </c>
@@ -10818,7 +10817,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="327" spans="1:6" hidden="1">
+    <row r="327" spans="1:6">
       <c r="A327" s="2" t="s">
         <v>456</v>
       </c>
@@ -10838,7 +10837,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="328" spans="1:6" hidden="1">
+    <row r="328" spans="1:6">
       <c r="A328" s="2" t="s">
         <v>457</v>
       </c>
@@ -10858,7 +10857,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="329" spans="1:6" hidden="1">
+    <row r="329" spans="1:6">
       <c r="A329" s="2" t="s">
         <v>458</v>
       </c>
@@ -10878,7 +10877,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="330" spans="1:6" hidden="1">
+    <row r="330" spans="1:6">
       <c r="A330" s="2" t="s">
         <v>459</v>
       </c>
@@ -10898,7 +10897,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="331" spans="1:6" hidden="1">
+    <row r="331" spans="1:6">
       <c r="A331" s="2" t="s">
         <v>460</v>
       </c>
@@ -10918,7 +10917,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="332" spans="1:6" hidden="1">
+    <row r="332" spans="1:6">
       <c r="A332" s="2" t="s">
         <v>461</v>
       </c>
@@ -10938,7 +10937,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="333" spans="1:6" hidden="1">
+    <row r="333" spans="1:6">
       <c r="A333" s="2" t="s">
         <v>462</v>
       </c>
@@ -10958,7 +10957,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="334" spans="1:6" hidden="1">
+    <row r="334" spans="1:6">
       <c r="A334" s="2" t="s">
         <v>463</v>
       </c>
@@ -10978,7 +10977,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="335" spans="1:6" hidden="1">
+    <row r="335" spans="1:6">
       <c r="A335" s="2" t="s">
         <v>464</v>
       </c>
@@ -10998,7 +10997,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="336" spans="1:6" hidden="1">
+    <row r="336" spans="1:6">
       <c r="A336" s="2" t="s">
         <v>465</v>
       </c>
@@ -11018,7 +11017,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="337" spans="1:6" hidden="1">
+    <row r="337" spans="1:6">
       <c r="A337" s="2" t="s">
         <v>466</v>
       </c>
@@ -11038,7 +11037,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="338" spans="1:6" s="29" customFormat="1" hidden="1">
+    <row r="338" spans="1:6" s="29" customFormat="1">
       <c r="A338" s="27" t="s">
         <v>467</v>
       </c>
@@ -11058,7 +11057,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="339" spans="1:6" hidden="1">
+    <row r="339" spans="1:6">
       <c r="A339" s="2" t="s">
         <v>469</v>
       </c>
@@ -11078,7 +11077,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="340" spans="1:6" hidden="1">
+    <row r="340" spans="1:6">
       <c r="A340" s="2" t="s">
         <v>470</v>
       </c>
@@ -11098,7 +11097,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="341" spans="1:6" hidden="1">
+    <row r="341" spans="1:6">
       <c r="A341" s="2" t="s">
         <v>470</v>
       </c>
@@ -11136,7 +11135,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="343" spans="1:6" hidden="1">
+    <row r="343" spans="1:6">
       <c r="A343" s="2" t="s">
         <v>472</v>
       </c>
@@ -11154,7 +11153,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="344" spans="1:6" hidden="1">
+    <row r="344" spans="1:6">
       <c r="A344" s="2" t="s">
         <v>473</v>
       </c>
@@ -11174,7 +11173,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="345" spans="1:6" hidden="1">
+    <row r="345" spans="1:6">
       <c r="A345" s="2" t="s">
         <v>474</v>
       </c>
@@ -11190,7 +11189,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="346" spans="1:6" hidden="1">
+    <row r="346" spans="1:6">
       <c r="A346" s="2" t="s">
         <v>475</v>
       </c>
@@ -11210,7 +11209,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="347" spans="1:6" hidden="1">
+    <row r="347" spans="1:6">
       <c r="A347" s="2" t="s">
         <v>476</v>
       </c>
@@ -11226,7 +11225,7 @@
       <c r="E347" s="3"/>
       <c r="F347" s="3"/>
     </row>
-    <row r="348" spans="1:6" hidden="1">
+    <row r="348" spans="1:6">
       <c r="A348" s="2" t="s">
         <v>477</v>
       </c>
@@ -11246,7 +11245,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="349" spans="1:6" hidden="1">
+    <row r="349" spans="1:6">
       <c r="A349" s="2" t="s">
         <v>478</v>
       </c>
@@ -11266,7 +11265,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="350" spans="1:6" hidden="1">
+    <row r="350" spans="1:6">
       <c r="A350" s="2" t="s">
         <v>479</v>
       </c>
@@ -11286,7 +11285,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="351" spans="1:6" hidden="1">
+    <row r="351" spans="1:6">
       <c r="A351" s="2" t="s">
         <v>480</v>
       </c>
@@ -11306,7 +11305,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="352" spans="1:6" hidden="1">
+    <row r="352" spans="1:6">
       <c r="A352" s="2" t="s">
         <v>481</v>
       </c>
@@ -11326,7 +11325,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="353" spans="1:6" hidden="1">
+    <row r="353" spans="1:6">
       <c r="A353" s="2" t="s">
         <v>482</v>
       </c>
@@ -11346,7 +11345,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="354" spans="1:6" hidden="1">
+    <row r="354" spans="1:6">
       <c r="A354" s="2" t="s">
         <v>484</v>
       </c>
@@ -11366,7 +11365,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="355" spans="1:6" hidden="1">
+    <row r="355" spans="1:6">
       <c r="A355" s="2" t="s">
         <v>485</v>
       </c>
@@ -11386,7 +11385,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="356" spans="1:6" hidden="1">
+    <row r="356" spans="1:6">
       <c r="A356" s="2" t="s">
         <v>485</v>
       </c>
@@ -11402,7 +11401,7 @@
       <c r="E356" s="3"/>
       <c r="F356" s="3"/>
     </row>
-    <row r="357" spans="1:6" hidden="1">
+    <row r="357" spans="1:6">
       <c r="A357" s="2" t="s">
         <v>486</v>
       </c>
@@ -11422,7 +11421,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="358" spans="1:6" hidden="1">
+    <row r="358" spans="1:6">
       <c r="A358" s="2" t="s">
         <v>487</v>
       </c>
@@ -11442,7 +11441,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="359" spans="1:6" hidden="1">
+    <row r="359" spans="1:6">
       <c r="A359" s="2" t="s">
         <v>488</v>
       </c>
@@ -11462,7 +11461,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="360" spans="1:6" hidden="1">
+    <row r="360" spans="1:6">
       <c r="A360" s="2" t="s">
         <v>489</v>
       </c>
@@ -11482,7 +11481,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="361" spans="1:6" hidden="1">
+    <row r="361" spans="1:6">
       <c r="A361" s="2" t="s">
         <v>490</v>
       </c>
@@ -11502,7 +11501,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="362" spans="1:6" hidden="1">
+    <row r="362" spans="1:6">
       <c r="A362" s="2" t="s">
         <v>491</v>
       </c>
@@ -11522,7 +11521,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="363" spans="1:6" hidden="1">
+    <row r="363" spans="1:6">
       <c r="A363" s="2" t="s">
         <v>491</v>
       </c>
@@ -11538,7 +11537,7 @@
       <c r="E363" s="3"/>
       <c r="F363" s="3"/>
     </row>
-    <row r="364" spans="1:6" hidden="1">
+    <row r="364" spans="1:6">
       <c r="A364" s="2" t="s">
         <v>492</v>
       </c>
@@ -11558,7 +11557,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="365" spans="1:6" hidden="1">
+    <row r="365" spans="1:6">
       <c r="A365" s="2" t="s">
         <v>493</v>
       </c>
@@ -11578,7 +11577,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="366" spans="1:6" hidden="1">
+    <row r="366" spans="1:6">
       <c r="A366" s="2" t="s">
         <v>494</v>
       </c>
@@ -11598,7 +11597,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="367" spans="1:6" hidden="1">
+    <row r="367" spans="1:6">
       <c r="A367" s="2" t="s">
         <v>495</v>
       </c>
@@ -11618,7 +11617,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="368" spans="1:6" hidden="1">
+    <row r="368" spans="1:6">
       <c r="A368" s="2" t="s">
         <v>496</v>
       </c>
@@ -11638,7 +11637,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="369" spans="1:6" hidden="1">
+    <row r="369" spans="1:6">
       <c r="A369" s="2" t="s">
         <v>497</v>
       </c>
@@ -11658,7 +11657,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="370" spans="1:6" hidden="1">
+    <row r="370" spans="1:6">
       <c r="A370" s="2" t="s">
         <v>498</v>
       </c>
@@ -11678,7 +11677,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="371" spans="1:6" hidden="1">
+    <row r="371" spans="1:6">
       <c r="A371" s="2" t="s">
         <v>499</v>
       </c>
@@ -11698,7 +11697,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="372" spans="1:6" hidden="1">
+    <row r="372" spans="1:6">
       <c r="A372" s="2" t="s">
         <v>500</v>
       </c>
@@ -11718,7 +11717,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="373" spans="1:6" hidden="1">
+    <row r="373" spans="1:6">
       <c r="A373" s="2" t="s">
         <v>501</v>
       </c>
@@ -11738,7 +11737,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="374" spans="1:6" hidden="1">
+    <row r="374" spans="1:6">
       <c r="A374" s="2" t="s">
         <v>502</v>
       </c>
@@ -11758,7 +11757,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="375" spans="1:6" hidden="1">
+    <row r="375" spans="1:6">
       <c r="A375" s="2" t="s">
         <v>503</v>
       </c>
@@ -11778,7 +11777,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="376" spans="1:6" hidden="1">
+    <row r="376" spans="1:6">
       <c r="A376" s="2" t="s">
         <v>504</v>
       </c>
@@ -11798,7 +11797,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="377" spans="1:6" hidden="1">
+    <row r="377" spans="1:6">
       <c r="A377" s="2" t="s">
         <v>505</v>
       </c>
@@ -11818,7 +11817,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="378" spans="1:6" hidden="1">
+    <row r="378" spans="1:6">
       <c r="A378" s="2" t="s">
         <v>505</v>
       </c>
@@ -11834,7 +11833,7 @@
       <c r="E378" s="3"/>
       <c r="F378" s="3"/>
     </row>
-    <row r="379" spans="1:6" hidden="1">
+    <row r="379" spans="1:6">
       <c r="A379" s="2" t="s">
         <v>506</v>
       </c>
@@ -11854,7 +11853,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="380" spans="1:6" hidden="1">
+    <row r="380" spans="1:6">
       <c r="A380" s="2" t="s">
         <v>507</v>
       </c>
@@ -11874,7 +11873,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="381" spans="1:6" hidden="1">
+    <row r="381" spans="1:6">
       <c r="A381" s="2" t="s">
         <v>508</v>
       </c>
@@ -11894,7 +11893,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="382" spans="1:6" hidden="1">
+    <row r="382" spans="1:6">
       <c r="A382" s="2" t="s">
         <v>509</v>
       </c>
@@ -11914,7 +11913,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="383" spans="1:6" hidden="1">
+    <row r="383" spans="1:6">
       <c r="A383" s="2" t="s">
         <v>510</v>
       </c>
@@ -11934,7 +11933,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="384" spans="1:6" hidden="1">
+    <row r="384" spans="1:6">
       <c r="A384" s="2" t="s">
         <v>511</v>
       </c>
@@ -11954,7 +11953,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="385" spans="1:6" hidden="1">
+    <row r="385" spans="1:6">
       <c r="A385" s="2" t="s">
         <v>512</v>
       </c>
@@ -11974,7 +11973,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="386" spans="1:6" hidden="1">
+    <row r="386" spans="1:6">
       <c r="A386" s="2" t="s">
         <v>513</v>
       </c>
@@ -11994,7 +11993,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="387" spans="1:6" hidden="1">
+    <row r="387" spans="1:6">
       <c r="A387" s="2" t="s">
         <v>514</v>
       </c>
@@ -12014,7 +12013,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="388" spans="1:6" hidden="1">
+    <row r="388" spans="1:6">
       <c r="A388" s="2" t="s">
         <v>515</v>
       </c>
@@ -12034,7 +12033,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="389" spans="1:6" hidden="1">
+    <row r="389" spans="1:6">
       <c r="A389" s="2" t="s">
         <v>516</v>
       </c>
@@ -12054,7 +12053,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="390" spans="1:6" hidden="1">
+    <row r="390" spans="1:6">
       <c r="A390" s="2" t="s">
         <v>517</v>
       </c>
@@ -12074,7 +12073,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="391" spans="1:6" hidden="1">
+    <row r="391" spans="1:6">
       <c r="A391" s="2" t="s">
         <v>518</v>
       </c>
@@ -12094,7 +12093,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="392" spans="1:6" hidden="1">
+    <row r="392" spans="1:6">
       <c r="A392" s="2" t="s">
         <v>519</v>
       </c>
@@ -12114,7 +12113,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="393" spans="1:6" hidden="1">
+    <row r="393" spans="1:6">
       <c r="A393" s="2" t="s">
         <v>520</v>
       </c>
@@ -12134,7 +12133,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="394" spans="1:6" hidden="1">
+    <row r="394" spans="1:6">
       <c r="A394" s="2" t="s">
         <v>521</v>
       </c>
@@ -12154,7 +12153,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="395" spans="1:6" hidden="1">
+    <row r="395" spans="1:6">
       <c r="A395" s="2" t="s">
         <v>522</v>
       </c>
@@ -12174,7 +12173,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="396" spans="1:6" hidden="1">
+    <row r="396" spans="1:6">
       <c r="A396" s="2" t="s">
         <v>523</v>
       </c>
@@ -12194,7 +12193,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="397" spans="1:6" hidden="1">
+    <row r="397" spans="1:6">
       <c r="A397" s="2" t="s">
         <v>524</v>
       </c>
@@ -12214,7 +12213,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="398" spans="1:6" hidden="1">
+    <row r="398" spans="1:6">
       <c r="A398" s="2" t="s">
         <v>525</v>
       </c>
@@ -12234,7 +12233,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="399" spans="1:6" hidden="1">
+    <row r="399" spans="1:6">
       <c r="A399" s="2" t="s">
         <v>526</v>
       </c>
@@ -12254,7 +12253,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="400" spans="1:6" hidden="1">
+    <row r="400" spans="1:6">
       <c r="A400" s="2" t="s">
         <v>527</v>
       </c>
@@ -12274,7 +12273,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="401" spans="1:6" hidden="1">
+    <row r="401" spans="1:6">
       <c r="A401" s="2" t="s">
         <v>528</v>
       </c>
@@ -12294,7 +12293,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="402" spans="1:6" hidden="1">
+    <row r="402" spans="1:6">
       <c r="A402" s="2" t="s">
         <v>529</v>
       </c>
@@ -12314,7 +12313,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="403" spans="1:6" hidden="1">
+    <row r="403" spans="1:6">
       <c r="A403" s="2" t="s">
         <v>530</v>
       </c>
@@ -12334,7 +12333,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="404" spans="1:6" hidden="1">
+    <row r="404" spans="1:6">
       <c r="A404" s="2" t="s">
         <v>532</v>
       </c>
@@ -12354,7 +12353,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="405" spans="1:6" hidden="1">
+    <row r="405" spans="1:6">
       <c r="A405" s="2" t="s">
         <v>533</v>
       </c>
@@ -12374,7 +12373,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="406" spans="1:6" hidden="1">
+    <row r="406" spans="1:6">
       <c r="A406" s="2" t="s">
         <v>535</v>
       </c>
@@ -12394,7 +12393,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="407" spans="1:6" hidden="1">
+    <row r="407" spans="1:6">
       <c r="A407" s="2" t="s">
         <v>536</v>
       </c>
@@ -12414,7 +12413,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="408" spans="1:6" hidden="1">
+    <row r="408" spans="1:6">
       <c r="A408" s="2" t="s">
         <v>537</v>
       </c>
@@ -12434,7 +12433,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="409" spans="1:6" hidden="1">
+    <row r="409" spans="1:6">
       <c r="A409" s="2" t="s">
         <v>538</v>
       </c>
@@ -12454,7 +12453,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="410" spans="1:6" hidden="1">
+    <row r="410" spans="1:6">
       <c r="A410" s="2" t="s">
         <v>539</v>
       </c>
@@ -12474,7 +12473,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="411" spans="1:6" hidden="1">
+    <row r="411" spans="1:6">
       <c r="A411" s="2" t="s">
         <v>540</v>
       </c>
@@ -12494,7 +12493,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="412" spans="1:6" hidden="1">
+    <row r="412" spans="1:6">
       <c r="A412" s="2" t="s">
         <v>541</v>
       </c>
@@ -12514,7 +12513,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="413" spans="1:6" hidden="1">
+    <row r="413" spans="1:6">
       <c r="A413" s="2" t="s">
         <v>542</v>
       </c>
@@ -12534,7 +12533,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="414" spans="1:6" hidden="1">
+    <row r="414" spans="1:6">
       <c r="A414" s="2" t="s">
         <v>543</v>
       </c>
@@ -12554,7 +12553,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="415" spans="1:6" hidden="1">
+    <row r="415" spans="1:6">
       <c r="A415" s="2" t="s">
         <v>544</v>
       </c>
@@ -12599,19 +12598,27 @@
       <c r="F418" s="3"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L415" xr:uid="{3E283707-C4FC-4391-918E-FFA78815A9E6}">
-    <filterColumn colId="5">
-      <filters>
-        <filter val="Missing/Incorrect Encryption Implementation"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:L415" xr:uid="{3E283707-C4FC-4391-918E-FFA78815A9E6}"/>
   <mergeCells count="32">
-    <mergeCell ref="N25:N31"/>
-    <mergeCell ref="N32:N38"/>
-    <mergeCell ref="N39:N43"/>
-    <mergeCell ref="N44:N47"/>
-    <mergeCell ref="N48:N50"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="N24:O24"/>
+    <mergeCell ref="N4:N15"/>
+    <mergeCell ref="N16:N17"/>
+    <mergeCell ref="N18:N20"/>
+    <mergeCell ref="H52:I52"/>
+    <mergeCell ref="H51:I51"/>
+    <mergeCell ref="H4:H15"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="H18:H20"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="M44:M47"/>
+    <mergeCell ref="M48:M50"/>
+    <mergeCell ref="H25:H31"/>
+    <mergeCell ref="H32:H38"/>
+    <mergeCell ref="H39:H43"/>
+    <mergeCell ref="H44:H47"/>
+    <mergeCell ref="H48:H50"/>
     <mergeCell ref="L3:M3"/>
     <mergeCell ref="M4:M15"/>
     <mergeCell ref="M25:M31"/>
@@ -12620,25 +12627,11 @@
     <mergeCell ref="M16:M17"/>
     <mergeCell ref="M18:M20"/>
     <mergeCell ref="L24:M24"/>
-    <mergeCell ref="M44:M47"/>
-    <mergeCell ref="M48:M50"/>
-    <mergeCell ref="H25:H31"/>
-    <mergeCell ref="H32:H38"/>
-    <mergeCell ref="H39:H43"/>
-    <mergeCell ref="H44:H47"/>
-    <mergeCell ref="H48:H50"/>
-    <mergeCell ref="H52:I52"/>
-    <mergeCell ref="H51:I51"/>
-    <mergeCell ref="H4:H15"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="H18:H20"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="N24:O24"/>
-    <mergeCell ref="N4:N15"/>
-    <mergeCell ref="N16:N17"/>
-    <mergeCell ref="N18:N20"/>
+    <mergeCell ref="N25:N31"/>
+    <mergeCell ref="N32:N38"/>
+    <mergeCell ref="N39:N43"/>
+    <mergeCell ref="N44:N47"/>
+    <mergeCell ref="N48:N50"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="A1:A400 A419:A1048576">
